--- a/n of 1/Others n of 1/VO2max_Others/VW_VO2max/VO2Max test 20180713.xlsx
+++ b/n of 1/Others n of 1/VO2max_Others/VW_VO2max/VO2Max test 20180713.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="630" windowWidth="11985" windowHeight="11790" tabRatio="836" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="6030" yWindow="630" windowWidth="11985" windowHeight="11790" tabRatio="836" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="VO2max" sheetId="1" r:id="rId1"/>
@@ -15,9 +15,6 @@
     <sheet name="PerVO2max_CHO-FAT(c)" sheetId="6" r:id="rId6"/>
     <sheet name="HR_CHO-FAT(c)" sheetId="8" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -28,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>SVW VO2max</t>
   </si>
@@ -127,6 +124,10 @@
   <si>
     <t>start</t>
   </si>
+  <si>
+    <t>Total
+kCal/min</t>
+  </si>
 </sst>
 </file>
 
@@ -136,7 +137,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -146,6 +147,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -176,14 +184,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -201,9 +207,14 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -298,7 +309,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -496,11 +506,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="92510848"/>
-        <c:axId val="92509312"/>
+        <c:axId val="113052288"/>
+        <c:axId val="112812416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92510848"/>
+        <c:axId val="113052288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -509,12 +519,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92509312"/>
+        <c:crossAx val="112812416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92509312"/>
+        <c:axId val="112812416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -525,14 +535,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92510848"/>
+        <c:crossAx val="113052288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -945,11 +954,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124123008"/>
-        <c:axId val="124124544"/>
+        <c:axId val="112847104"/>
+        <c:axId val="113520640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124123008"/>
+        <c:axId val="112847104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -1004,12 +1013,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124124544"/>
+        <c:crossAx val="113520640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124124544"/>
+        <c:axId val="113520640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1062,7 +1071,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124123008"/>
+        <c:crossAx val="112847104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1147,7 +1156,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1180,7 +1188,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -1380,11 +1387,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124085760"/>
-        <c:axId val="123733504"/>
+        <c:axId val="113599616"/>
+        <c:axId val="113601152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124085760"/>
+        <c:axId val="113599616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,12 +1401,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123733504"/>
+        <c:crossAx val="113601152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="123733504"/>
+        <c:axId val="113601152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,14 +1417,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124085760"/>
+        <c:crossAx val="113599616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1467,7 +1473,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1710,11 +1715,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="119494144"/>
-        <c:axId val="119492608"/>
+        <c:axId val="113614208"/>
+        <c:axId val="113620096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="119494144"/>
+        <c:axId val="113614208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="180"/>
@@ -1728,12 +1733,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119492608"/>
+        <c:crossAx val="113620096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="119492608"/>
+        <c:axId val="113620096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.60000000000000009"/>
@@ -1746,7 +1751,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119494144"/>
+        <c:crossAx val="113614208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1809,7 +1814,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2565,11 +2569,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="70469504"/>
-        <c:axId val="70483968"/>
+        <c:axId val="118104448"/>
+        <c:axId val="118106368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70469504"/>
+        <c:axId val="118104448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="60"/>
@@ -2652,12 +2656,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70483968"/>
+        <c:crossAx val="118106368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70483968"/>
+        <c:axId val="118106368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2693,7 +2697,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2719,7 +2722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70469504"/>
+        <c:crossAx val="118104448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2813,7 +2816,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3221,11 +3223,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="70531712"/>
-        <c:axId val="70542080"/>
+        <c:axId val="118182272"/>
+        <c:axId val="118184192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70531712"/>
+        <c:axId val="118182272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3253,7 +3255,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
@@ -3279,12 +3280,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70542080"/>
+        <c:crossAx val="118184192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70542080"/>
+        <c:axId val="118184192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2"/>
@@ -3322,7 +3323,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -3348,7 +3348,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70531712"/>
+        <c:crossAx val="118182272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4180,11 +4180,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="70827008"/>
-        <c:axId val="70829184"/>
+        <c:axId val="118913280"/>
+        <c:axId val="118927744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="70827008"/>
+        <c:axId val="118913280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4254,12 +4254,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70829184"/>
+        <c:crossAx val="118927744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="70829184"/>
+        <c:axId val="118927744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4329,7 +4329,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="70827008"/>
+        <c:crossAx val="118913280"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5082,11 +5082,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="125543936"/>
-        <c:axId val="125483264"/>
+        <c:axId val="118275072"/>
+        <c:axId val="118493952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="125543936"/>
+        <c:axId val="118275072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="70"/>
@@ -5098,12 +5098,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125483264"/>
+        <c:crossAx val="118493952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="125483264"/>
+        <c:axId val="118493952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5115,7 +5115,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="125543936"/>
+        <c:crossAx val="118275072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5396,16 +5396,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5776,335 +5776,6 @@
 </c:userShapes>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="VO2max"/>
-      <sheetName val="HR_VO2Perc"/>
-      <sheetName val="HR_RER"/>
-      <sheetName val="HR_Fat-CHO-Ox(pct)"/>
-      <sheetName val="PerVO2max_Fat(g)"/>
-      <sheetName val="PerVO2max_CHO-FAT(c)"/>
-      <sheetName val="HR_CHO-FAT(c)"/>
-      <sheetName val="Lact_Thresh"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>%VO2max</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>78</v>
-          </cell>
-          <cell r="B2">
-            <v>0.12280701754385964</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>76</v>
-          </cell>
-          <cell r="B3">
-            <v>9.0643274853801165E-2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>70</v>
-          </cell>
-          <cell r="B4">
-            <v>0.10818713450292397</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>80</v>
-          </cell>
-          <cell r="B5">
-            <v>9.6491228070175419E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>84</v>
-          </cell>
-          <cell r="B6">
-            <v>0.10526315789473684</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>76</v>
-          </cell>
-          <cell r="B7">
-            <v>0.11695906432748537</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>84</v>
-          </cell>
-          <cell r="B8">
-            <v>0.17251461988304093</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>92</v>
-          </cell>
-          <cell r="B9">
-            <v>0.20760233918128651</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>84</v>
-          </cell>
-          <cell r="B10">
-            <v>0.16666666666666666</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>82</v>
-          </cell>
-          <cell r="B11">
-            <v>0.17251461988304093</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>88</v>
-          </cell>
-          <cell r="B12">
-            <v>0.22807017543859648</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>88</v>
-          </cell>
-          <cell r="B13">
-            <v>0.22807017543859648</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>90</v>
-          </cell>
-          <cell r="B14">
-            <v>0.27777777777777773</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>94</v>
-          </cell>
-          <cell r="B15">
-            <v>0.27192982456140352</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>96</v>
-          </cell>
-          <cell r="B16">
-            <v>0.34795321637426901</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>99</v>
-          </cell>
-          <cell r="B17">
-            <v>0.41812865497076024</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>102</v>
-          </cell>
-          <cell r="B18">
-            <v>0.40350877192982454</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>103</v>
-          </cell>
-          <cell r="B19">
-            <v>0.48538011695906436</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>106</v>
-          </cell>
-          <cell r="B20">
-            <v>0.48245614035087714</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>114</v>
-          </cell>
-          <cell r="B21">
-            <v>0.42690058479532161</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>106</v>
-          </cell>
-          <cell r="B22">
-            <v>0.49122807017543857</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>109</v>
-          </cell>
-          <cell r="B23">
-            <v>0.58771929824561397</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>117</v>
-          </cell>
-          <cell r="B24">
-            <v>0.62573099415204669</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>124</v>
-          </cell>
-          <cell r="B25">
-            <v>0.67836257309941517</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>126</v>
-          </cell>
-          <cell r="B26">
-            <v>0.62280701754385959</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>129</v>
-          </cell>
-          <cell r="B27">
-            <v>0.64912280701754377</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>135</v>
-          </cell>
-          <cell r="B28">
-            <v>0.76608187134502914</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>138</v>
-          </cell>
-          <cell r="B29">
-            <v>0.72514619883040932</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>148</v>
-          </cell>
-          <cell r="B30">
-            <v>0.78070175438596479</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>139</v>
-          </cell>
-          <cell r="B31">
-            <v>0.7192982456140351</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>143</v>
-          </cell>
-          <cell r="B32">
-            <v>0.85964912280701744</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>149</v>
-          </cell>
-          <cell r="B33">
-            <v>0.85964912280701744</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>155</v>
-          </cell>
-          <cell r="B34">
-            <v>0.86257309941520466</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>158</v>
-          </cell>
-          <cell r="B35">
-            <v>0.95614035087719296</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>161</v>
-          </cell>
-          <cell r="B36">
-            <v>0.9385964912280701</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>165</v>
-          </cell>
-          <cell r="B37">
-            <v>0.97076023391812871</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>167</v>
-          </cell>
-          <cell r="B38">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6400,7 +6071,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" customWidth="1"/>
     <col min="4" max="4" width="6.28515625" customWidth="1"/>
@@ -6420,16 +6091,16 @@
     <col min="18" max="18" width="7.28515625" customWidth="1"/>
     <col min="19" max="19" width="4.7109375" customWidth="1"/>
     <col min="20" max="20" width="3.5703125" customWidth="1"/>
-    <col min="21" max="24" width="11.5703125" style="3"/>
+    <col min="21" max="24" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -6444,7 +6115,7 @@
       <c r="X4"/>
     </row>
     <row r="5" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -6501,23 +6172,23 @@
       <c r="S5" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="5" t="s">
+      <c r="T5" s="3"/>
+      <c r="U5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="5" t="s">
+      <c r="X5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Y5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="Z5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="AA5" t="s">
@@ -6525,7 +6196,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>2.5462962962962999E-4</v>
       </c>
       <c r="B6">
@@ -6571,23 +6242,23 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="3">
+      <c r="T6" s="3"/>
+      <c r="U6" s="2">
         <f>G6*B6</f>
         <v>0.22780000000000003</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="2">
         <f t="shared" ref="V6:V37" si="1">1.44*((3.9*B6)+(1.1*U6))</f>
         <v>2.2702751999999999</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="2">
         <f t="shared" ref="W6:W37" si="2">Y6/9</f>
         <v>0.28252313600000001</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="2">
         <f t="shared" ref="X6:X37" si="3">Z6/4</f>
         <v>-6.8108255999999992E-2</v>
       </c>
@@ -6599,13 +6270,13 @@
         <f t="shared" ref="Z6:Z37" si="5">V6*E6/100</f>
         <v>-0.27243302399999997</v>
       </c>
-      <c r="AA6" s="6">
+      <c r="AA6" s="5">
         <f t="shared" ref="AA6:AA37" si="6">C6/$B$2</f>
         <v>7.3578595317725759E-2</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>4.9768518518518499E-4</v>
       </c>
       <c r="B7">
@@ -6651,21 +6322,21 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7" s="1"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="3">
+      <c r="P7" s="12"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="2">
         <f t="shared" ref="U7:U61" si="7">G7*B7</f>
         <v>0.24790000000000001</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="2">
         <f t="shared" si="1"/>
         <v>2.4705935999999999</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="2">
         <f t="shared" si="2"/>
         <v>0.31019675200000002</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="2">
         <f t="shared" si="3"/>
         <v>-8.0294291999999989E-2</v>
       </c>
@@ -6677,13 +6348,13 @@
         <f t="shared" si="5"/>
         <v>-0.32117716799999996</v>
       </c>
-      <c r="AA7" s="6">
+      <c r="AA7" s="5">
         <f t="shared" si="6"/>
         <v>7.8595317725752512E-2</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7.1759259259259302E-4</v>
       </c>
       <c r="B8">
@@ -6729,21 +6400,21 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" s="1"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="3">
+      <c r="P8" s="12"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="2">
         <f t="shared" si="7"/>
         <v>0.22110000000000002</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="2">
         <f t="shared" si="1"/>
         <v>2.2035023999999996</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="2">
         <f t="shared" si="2"/>
         <v>0.28400697599999991</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="2">
         <f t="shared" si="3"/>
         <v>-8.8140095999999987E-2</v>
       </c>
@@ -6755,13 +6426,13 @@
         <f t="shared" si="5"/>
         <v>-0.35256038399999995</v>
       </c>
-      <c r="AA8" s="6">
+      <c r="AA8" s="5">
         <f t="shared" si="6"/>
         <v>7.0234113712374591E-2</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>9.4907407407407397E-4</v>
       </c>
       <c r="B9">
@@ -6807,21 +6478,21 @@
       <c r="O9">
         <v>0</v>
       </c>
-      <c r="P9" s="1"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="3">
+      <c r="P9" s="12"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="2">
         <f t="shared" si="7"/>
         <v>0.26130000000000003</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="2">
         <f t="shared" si="1"/>
         <v>2.6041392000000001</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="2">
         <f t="shared" si="2"/>
         <v>0.32985763200000001</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="2">
         <f t="shared" si="3"/>
         <v>-9.1144872000000016E-2</v>
       </c>
@@ -6833,13 +6504,13 @@
         <f t="shared" si="5"/>
         <v>-0.36457948800000006</v>
       </c>
-      <c r="AA9" s="6">
+      <c r="AA9" s="5">
         <f t="shared" si="6"/>
         <v>8.1939799331103694E-2</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>1.1805555555555599E-3</v>
       </c>
       <c r="B10">
@@ -6885,21 +6556,21 @@
       <c r="O10">
         <v>0</v>
       </c>
-      <c r="P10" s="1"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="3">
+      <c r="P10" s="12"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="2">
         <f t="shared" si="7"/>
         <v>0.25740000000000002</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="2">
         <f t="shared" si="1"/>
         <v>2.5979615999999996</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="2">
         <f t="shared" si="2"/>
         <v>0.33773500799999995</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="2">
         <f t="shared" si="3"/>
         <v>-0.11041336799999998</v>
       </c>
@@ -6911,13 +6582,13 @@
         <f t="shared" si="5"/>
         <v>-0.44165347199999994</v>
       </c>
-      <c r="AA10" s="6">
+      <c r="AA10" s="5">
         <f t="shared" si="6"/>
         <v>8.1939799331103694E-2</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>1.4004629629629599E-3</v>
       </c>
       <c r="B11">
@@ -6963,23 +6634,23 @@
       <c r="O11">
         <v>0</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="T11" s="4"/>
-      <c r="U11" s="3">
+      <c r="T11" s="3"/>
+      <c r="U11" s="2">
         <f t="shared" si="7"/>
         <v>0.2838</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="2">
         <f t="shared" si="1"/>
         <v>2.8644191999999999</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="2">
         <f t="shared" si="2"/>
         <v>0.36919180799999995</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X11" s="2">
         <f t="shared" si="3"/>
         <v>-0.114576768</v>
       </c>
@@ -6991,13 +6662,13 @@
         <f t="shared" si="5"/>
         <v>-0.45830707199999998</v>
       </c>
-      <c r="AA11" s="6">
+      <c r="AA11" s="5">
         <f t="shared" si="6"/>
         <v>9.1973244147157199E-2</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>1.6203703703703701E-3</v>
       </c>
       <c r="B12">
@@ -7043,21 +6714,21 @@
       <c r="O12">
         <v>0</v>
       </c>
-      <c r="P12" s="1"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="3">
+      <c r="P12" s="12"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="2">
         <f t="shared" si="7"/>
         <v>0.44200000000000006</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="2">
         <f t="shared" si="1"/>
         <v>4.3505280000000006</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="2">
         <f t="shared" si="2"/>
         <v>0.53656512000000012</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12" s="2">
         <f t="shared" si="3"/>
         <v>-0.11963952000000003</v>
       </c>
@@ -7069,13 +6740,13 @@
         <f t="shared" si="5"/>
         <v>-0.47855808000000011</v>
       </c>
-      <c r="AA12" s="6">
+      <c r="AA12" s="5">
         <f t="shared" si="6"/>
         <v>0.14046822742474918</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>1.8749999999999999E-3</v>
       </c>
       <c r="B13">
@@ -7121,21 +6792,21 @@
       <c r="O13">
         <v>0</v>
       </c>
-      <c r="P13" s="1"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="3">
+      <c r="P13" s="12"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="2">
         <f t="shared" si="7"/>
         <v>0.54599999999999993</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="2">
         <f t="shared" si="1"/>
         <v>5.2453439999999993</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="2">
         <f t="shared" si="2"/>
         <v>6.9937919999999987E-2</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X13" s="2">
         <f t="shared" si="3"/>
         <v>1.1539756799999998</v>
       </c>
@@ -7147,13 +6818,13 @@
         <f t="shared" si="5"/>
         <v>4.6159027199999993</v>
       </c>
-      <c r="AA13" s="6">
+      <c r="AA13" s="5">
         <f t="shared" si="6"/>
         <v>0.16722408026755853</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>2.0949074074074099E-3</v>
       </c>
       <c r="B14">
@@ -7199,21 +6870,21 @@
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14" s="1"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="3">
+      <c r="P14" s="12"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="2">
         <f t="shared" si="7"/>
         <v>0.45139999999999997</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="2">
         <f t="shared" si="1"/>
         <v>4.1407775999999998</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="2">
         <f t="shared" si="2"/>
         <v>0.40027516800000001</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="2">
         <f t="shared" si="3"/>
         <v>0.134575272</v>
       </c>
@@ -7225,13 +6896,13 @@
         <f t="shared" si="5"/>
         <v>0.53830108799999998</v>
       </c>
-      <c r="AA14" s="6">
+      <c r="AA14" s="5">
         <f t="shared" si="6"/>
         <v>0.13043478260869565</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>2.3148148148148099E-3</v>
       </c>
       <c r="B15">
@@ -7277,21 +6948,21 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15" s="1"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="3">
+      <c r="P15" s="12"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="2">
         <f t="shared" si="7"/>
         <v>0.47120000000000001</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="2">
         <f t="shared" si="1"/>
         <v>4.2283008000000004</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="2">
         <f t="shared" si="2"/>
         <v>0.37115084800000003</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15" s="2">
         <f t="shared" si="3"/>
         <v>0.22198579200000002</v>
       </c>
@@ -7303,13 +6974,13 @@
         <f t="shared" si="5"/>
         <v>0.88794316800000006</v>
       </c>
-      <c r="AA15" s="6">
+      <c r="AA15" s="5">
         <f t="shared" si="6"/>
         <v>0.13377926421404682</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>2.5578703703703701E-3</v>
       </c>
       <c r="B16">
@@ -7355,21 +7026,21 @@
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="P16" s="1"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="3">
+      <c r="P16" s="12"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="2">
         <f t="shared" si="7"/>
         <v>0.3478</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="2">
         <f t="shared" si="1"/>
         <v>3.1904352</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="2">
         <f t="shared" si="2"/>
         <v>0.31195366400000002</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X16" s="2">
         <f t="shared" si="3"/>
         <v>9.5713056000000005E-2</v>
       </c>
@@ -7381,13 +7052,13 @@
         <f t="shared" si="5"/>
         <v>0.38285222400000002</v>
       </c>
-      <c r="AA16" s="6">
+      <c r="AA16" s="5">
         <f t="shared" si="6"/>
         <v>0.1020066889632107</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>2.8009259259259298E-3</v>
       </c>
       <c r="B17">
@@ -7442,20 +7113,20 @@
       <c r="R17">
         <v>86</v>
       </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="3">
+      <c r="T17" s="3"/>
+      <c r="U17" s="2">
         <f t="shared" si="7"/>
         <v>0.42699999999999999</v>
       </c>
-      <c r="V17" s="3">
+      <c r="V17" s="2">
         <f t="shared" si="1"/>
         <v>4.1021279999999996</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="2">
         <f t="shared" si="2"/>
         <v>0.4694657599999999</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X17" s="2">
         <f t="shared" si="3"/>
         <v>-3.0765959999999995E-2</v>
       </c>
@@ -7467,13 +7138,13 @@
         <f t="shared" si="5"/>
         <v>-0.12306383999999998</v>
       </c>
-      <c r="AA17" s="6">
+      <c r="AA17" s="5">
         <f t="shared" si="6"/>
         <v>0.12876254180602006</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="1">
         <v>3.04398148148148E-3</v>
       </c>
       <c r="B18">
@@ -7519,20 +7190,20 @@
       <c r="O18">
         <v>10</v>
       </c>
-      <c r="T18" s="4"/>
-      <c r="U18" s="3">
+      <c r="T18" s="3"/>
+      <c r="U18" s="2">
         <f t="shared" si="7"/>
         <v>0.44849999999999995</v>
       </c>
-      <c r="V18" s="3">
+      <c r="V18" s="2">
         <f t="shared" si="1"/>
         <v>4.360824</v>
       </c>
-      <c r="W18" s="3">
+      <c r="W18" s="2">
         <f t="shared" si="2"/>
         <v>0.50876279999999996</v>
       </c>
-      <c r="X18" s="3">
+      <c r="X18" s="2">
         <f t="shared" si="3"/>
         <v>-5.4510300000000005E-2</v>
       </c>
@@ -7544,13 +7215,13 @@
         <f t="shared" si="5"/>
         <v>-0.21804120000000002</v>
       </c>
-      <c r="AA18" s="6">
+      <c r="AA18" s="5">
         <f t="shared" si="6"/>
         <v>0.1387959866220736</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19" s="1">
         <v>3.2523148148148099E-3</v>
       </c>
       <c r="B19">
@@ -7596,20 +7267,20 @@
       <c r="O19">
         <v>10</v>
       </c>
-      <c r="T19" s="4"/>
-      <c r="U19" s="3">
+      <c r="T19" s="3"/>
+      <c r="U19" s="2">
         <f t="shared" si="7"/>
         <v>0.30959999999999999</v>
       </c>
-      <c r="V19" s="3">
+      <c r="V19" s="2">
         <f t="shared" si="1"/>
         <v>2.9052864</v>
       </c>
-      <c r="W19" s="3">
+      <c r="W19" s="2">
         <f t="shared" si="2"/>
         <v>0.30989721600000003</v>
       </c>
-      <c r="X19" s="3">
+      <c r="X19" s="2">
         <f t="shared" si="3"/>
         <v>2.9052864000000001E-2</v>
       </c>
@@ -7621,13 +7292,13 @@
         <f t="shared" si="5"/>
         <v>0.116211456</v>
       </c>
-      <c r="AA19" s="6">
+      <c r="AA19" s="5">
         <f t="shared" si="6"/>
         <v>9.1973244147157199E-2</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20" s="1">
         <v>3.49537037037037E-3</v>
       </c>
       <c r="B20">
@@ -7673,20 +7344,20 @@
       <c r="O20">
         <v>10</v>
       </c>
-      <c r="T20" s="4"/>
-      <c r="U20" s="3">
+      <c r="T20" s="3"/>
+      <c r="U20" s="2">
         <f t="shared" si="7"/>
         <v>0.6633</v>
       </c>
-      <c r="V20" s="3">
+      <c r="V20" s="2">
         <f t="shared" si="1"/>
         <v>6.6105071999999998</v>
       </c>
-      <c r="W20" s="3">
+      <c r="W20" s="2">
         <f t="shared" si="2"/>
         <v>0.83733091200000009</v>
       </c>
-      <c r="X20" s="3">
+      <c r="X20" s="2">
         <f t="shared" si="3"/>
         <v>-0.23136775199999998</v>
       </c>
@@ -7698,13 +7369,13 @@
         <f t="shared" si="5"/>
         <v>-0.92547100799999993</v>
       </c>
-      <c r="AA20" s="6">
+      <c r="AA20" s="5">
         <f t="shared" si="6"/>
         <v>0.21070234113712374</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21" s="1">
         <v>3.71527777777778E-3</v>
       </c>
       <c r="B21">
@@ -7753,20 +7424,20 @@
       <c r="S21">
         <v>6</v>
       </c>
-      <c r="T21" s="4"/>
-      <c r="U21" s="3">
+      <c r="T21" s="3"/>
+      <c r="U21" s="2">
         <f t="shared" si="7"/>
         <v>0.78</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="2">
         <f t="shared" si="1"/>
         <v>7.9747200000000005</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="2">
         <f t="shared" si="2"/>
         <v>1.0721568000000001</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="2">
         <f t="shared" si="3"/>
         <v>-0.41867280000000001</v>
       </c>
@@ -7778,13 +7449,13 @@
         <f t="shared" si="5"/>
         <v>-1.6746912</v>
       </c>
-      <c r="AA21" s="6">
+      <c r="AA21" s="5">
         <f t="shared" si="6"/>
         <v>0.25752508361204013</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>3.9583333333333302E-3</v>
       </c>
       <c r="B22">
@@ -7830,20 +7501,20 @@
       <c r="O22">
         <v>10</v>
       </c>
-      <c r="T22" s="4"/>
-      <c r="U22" s="3">
+      <c r="T22" s="3"/>
+      <c r="U22" s="2">
         <f t="shared" si="7"/>
         <v>0.6695000000000001</v>
       </c>
-      <c r="V22" s="3">
+      <c r="V22" s="2">
         <f t="shared" si="1"/>
         <v>6.8449680000000006</v>
       </c>
-      <c r="W22" s="3">
+      <c r="W22" s="2">
         <f t="shared" si="2"/>
         <v>0.93547896000000008</v>
       </c>
-      <c r="X22" s="3">
+      <c r="X22" s="2">
         <f t="shared" si="3"/>
         <v>-0.39358566000000006</v>
       </c>
@@ -7855,13 +7526,13 @@
         <f t="shared" si="5"/>
         <v>-1.5743426400000002</v>
       </c>
-      <c r="AA22" s="6">
+      <c r="AA22" s="5">
         <f t="shared" si="6"/>
         <v>0.22073578595317725</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>4.1898148148148198E-3</v>
       </c>
       <c r="B23">
@@ -7913,20 +7584,20 @@
       <c r="R23">
         <v>88</v>
       </c>
-      <c r="T23" s="4"/>
-      <c r="U23" s="3">
+      <c r="T23" s="3"/>
+      <c r="U23" s="2">
         <f t="shared" si="7"/>
         <v>0.9052</v>
       </c>
-      <c r="V23" s="3">
+      <c r="V23" s="2">
         <f t="shared" si="1"/>
         <v>9.6331968000000003</v>
       </c>
-      <c r="W23" s="3">
+      <c r="W23" s="2">
         <f t="shared" si="2"/>
         <v>1.4342759679999999</v>
       </c>
-      <c r="X23" s="3">
+      <c r="X23" s="2">
         <f t="shared" si="3"/>
         <v>-0.81882172800000008</v>
       </c>
@@ -7938,13 +7609,13 @@
         <f t="shared" si="5"/>
         <v>-3.2752869120000003</v>
       </c>
-      <c r="AA23" s="6">
+      <c r="AA23" s="5">
         <f t="shared" si="6"/>
         <v>0.31103678929765888</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>4.3981481481481502E-3</v>
       </c>
       <c r="B24">
@@ -7990,20 +7661,20 @@
       <c r="O24">
         <v>10</v>
       </c>
-      <c r="T24" s="4"/>
-      <c r="U24" s="3">
+      <c r="T24" s="3"/>
+      <c r="U24" s="2">
         <f t="shared" si="7"/>
         <v>0.69960000000000011</v>
       </c>
-      <c r="V24" s="3">
+      <c r="V24" s="2">
         <f t="shared" si="1"/>
         <v>7.0611264000000009</v>
       </c>
-      <c r="W24" s="3">
+      <c r="W24" s="2">
         <f t="shared" si="2"/>
         <v>0.93363782400000028</v>
       </c>
-      <c r="X24" s="3">
+      <c r="X24" s="2">
         <f t="shared" si="3"/>
         <v>-0.33540350400000002</v>
       </c>
@@ -8015,13 +7686,13 @@
         <f t="shared" si="5"/>
         <v>-1.3416140160000001</v>
       </c>
-      <c r="AA24" s="6">
+      <c r="AA24" s="5">
         <f t="shared" si="6"/>
         <v>0.22742474916387961</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>4.6296296296296302E-3</v>
       </c>
       <c r="B25">
@@ -8067,20 +7738,20 @@
       <c r="O25">
         <v>10</v>
       </c>
-      <c r="T25" s="4"/>
-      <c r="U25" s="3">
+      <c r="T25" s="3"/>
+      <c r="U25" s="2">
         <f t="shared" si="7"/>
         <v>0.82550000000000001</v>
       </c>
-      <c r="V25" s="3">
+      <c r="V25" s="2">
         <f t="shared" si="1"/>
         <v>8.4399119999999996</v>
       </c>
-      <c r="W25" s="3">
+      <c r="W25" s="2">
         <f t="shared" si="2"/>
         <v>1.1534546399999999</v>
       </c>
-      <c r="X25" s="3">
+      <c r="X25" s="2">
         <f t="shared" si="3"/>
         <v>-0.48529494000000001</v>
       </c>
@@ -8092,13 +7763,13 @@
         <f t="shared" si="5"/>
         <v>-1.94117976</v>
       </c>
-      <c r="AA25" s="6">
+      <c r="AA25" s="5">
         <f t="shared" si="6"/>
         <v>0.27257525083612044</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>4.8842592592592601E-3</v>
       </c>
       <c r="B26">
@@ -8144,20 +7815,20 @@
       <c r="O26">
         <v>10</v>
       </c>
-      <c r="T26" s="4"/>
-      <c r="U26" s="3">
+      <c r="T26" s="3"/>
+      <c r="U26" s="2">
         <f t="shared" si="7"/>
         <v>0.82280000000000009</v>
       </c>
-      <c r="V26" s="3">
+      <c r="V26" s="2">
         <f t="shared" si="1"/>
         <v>8.0986751999999989</v>
       </c>
-      <c r="W26" s="3">
+      <c r="W26" s="2">
         <f t="shared" si="2"/>
         <v>0.99883660799999996</v>
       </c>
-      <c r="X26" s="3">
+      <c r="X26" s="2">
         <f t="shared" si="3"/>
         <v>-0.22271356799999997</v>
       </c>
@@ -8169,13 +7840,13 @@
         <f t="shared" si="5"/>
         <v>-0.89085427199999989</v>
       </c>
-      <c r="AA26" s="6">
+      <c r="AA26" s="5">
         <f t="shared" si="6"/>
         <v>0.25919732441471571</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>5.10416666666667E-3</v>
       </c>
       <c r="B27">
@@ -8221,20 +7892,20 @@
       <c r="O27">
         <v>12</v>
       </c>
-      <c r="T27" s="4"/>
-      <c r="U27" s="3">
+      <c r="T27" s="3"/>
+      <c r="U27" s="2">
         <f t="shared" si="7"/>
         <v>0.98669999999999991</v>
       </c>
-      <c r="V27" s="3">
+      <c r="V27" s="2">
         <f t="shared" si="1"/>
         <v>9.5938128000000003</v>
       </c>
-      <c r="W27" s="3">
+      <c r="W27" s="2">
         <f t="shared" si="2"/>
         <v>1.1405977439999999</v>
       </c>
-      <c r="X27" s="3">
+      <c r="X27" s="2">
         <f t="shared" si="3"/>
         <v>-0.16789172400000002</v>
       </c>
@@ -8246,13 +7917,13 @@
         <f t="shared" si="5"/>
         <v>-0.67156689600000008</v>
       </c>
-      <c r="AA27" s="6">
+      <c r="AA27" s="5">
         <f t="shared" si="6"/>
         <v>0.30602006688963213</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28" s="1">
         <v>5.3587962962962999E-3</v>
       </c>
       <c r="B28">
@@ -8298,20 +7969,20 @@
       <c r="O28">
         <v>12</v>
       </c>
-      <c r="T28" s="4"/>
-      <c r="U28" s="3">
+      <c r="T28" s="3"/>
+      <c r="U28" s="2">
         <f t="shared" si="7"/>
         <v>1.0499999999999998</v>
       </c>
-      <c r="V28" s="3">
+      <c r="V28" s="2">
         <f t="shared" si="1"/>
         <v>10.087199999999998</v>
       </c>
-      <c r="W28" s="3">
+      <c r="W28" s="2">
         <f t="shared" si="2"/>
         <v>1.1320079999999999</v>
       </c>
-      <c r="X28" s="3">
+      <c r="X28" s="2">
         <f t="shared" si="3"/>
         <v>-2.5217999999999994E-2</v>
       </c>
@@ -8323,13 +7994,13 @@
         <f t="shared" si="5"/>
         <v>-0.10087199999999998</v>
       </c>
-      <c r="AA28" s="6">
+      <c r="AA28" s="5">
         <f t="shared" si="6"/>
         <v>0.32107023411371238</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29" s="1">
         <v>5.5555555555555601E-3</v>
       </c>
       <c r="B29">
@@ -8375,20 +8046,20 @@
       <c r="O29">
         <v>12</v>
       </c>
-      <c r="T29" s="4"/>
-      <c r="U29" s="3">
+      <c r="T29" s="3"/>
+      <c r="U29" s="2">
         <f t="shared" si="7"/>
         <v>1.155</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="2">
         <f t="shared" si="1"/>
         <v>11.657520000000002</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="2">
         <f t="shared" si="2"/>
         <v>1.5154776000000003</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="2">
         <f t="shared" si="3"/>
         <v>-0.49544460000000007</v>
       </c>
@@ -8400,13 +8071,13 @@
         <f t="shared" si="5"/>
         <v>-1.9817784000000003</v>
       </c>
-      <c r="AA29" s="6">
+      <c r="AA29" s="5">
         <f t="shared" si="6"/>
         <v>0.37290969899665555</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30" s="1">
         <v>5.7986111111111103E-3</v>
       </c>
       <c r="B30">
@@ -8455,20 +8126,20 @@
       <c r="S30">
         <v>7</v>
       </c>
-      <c r="T30" s="4"/>
-      <c r="U30" s="3">
+      <c r="T30" s="3"/>
+      <c r="U30" s="2">
         <f t="shared" si="7"/>
         <v>1.3734999999999999</v>
       </c>
-      <c r="V30" s="3">
+      <c r="V30" s="2">
         <f t="shared" si="1"/>
         <v>13.688423999999998</v>
       </c>
-      <c r="W30" s="3">
+      <c r="W30" s="2">
         <f t="shared" si="2"/>
         <v>1.7338670399999996</v>
       </c>
-      <c r="X30" s="3">
+      <c r="X30" s="2">
         <f t="shared" si="3"/>
         <v>-0.47909483999999991</v>
       </c>
@@ -8480,13 +8151,13 @@
         <f t="shared" si="5"/>
         <v>-1.9163793599999996</v>
       </c>
-      <c r="AA30" s="6">
+      <c r="AA30" s="5">
         <f t="shared" si="6"/>
         <v>0.43812709030100333</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31" s="1">
         <v>6.04166666666667E-3</v>
       </c>
       <c r="B31">
@@ -8532,20 +8203,20 @@
       <c r="O31">
         <v>12</v>
       </c>
-      <c r="T31" s="4"/>
-      <c r="U31" s="3">
+      <c r="T31" s="3"/>
+      <c r="U31" s="2">
         <f t="shared" si="7"/>
         <v>1.0902000000000001</v>
       </c>
-      <c r="V31" s="3">
+      <c r="V31" s="2">
         <f t="shared" si="1"/>
         <v>10.600156800000001</v>
       </c>
-      <c r="W31" s="3">
+      <c r="W31" s="2">
         <f t="shared" si="2"/>
         <v>1.2484629119999999</v>
       </c>
-      <c r="X31" s="3">
+      <c r="X31" s="2">
         <f t="shared" si="3"/>
         <v>-0.15900235200000001</v>
       </c>
@@ -8557,13 +8228,13 @@
         <f t="shared" si="5"/>
         <v>-0.63600940800000005</v>
       </c>
-      <c r="AA31" s="6">
+      <c r="AA31" s="5">
         <f t="shared" si="6"/>
         <v>0.33946488294314386</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>6.2615740740740696E-3</v>
       </c>
       <c r="B32">
@@ -8615,20 +8286,20 @@
       <c r="R32">
         <v>92</v>
       </c>
-      <c r="T32" s="4"/>
-      <c r="U32" s="3">
+      <c r="T32" s="3"/>
+      <c r="U32" s="2">
         <f t="shared" si="7"/>
         <v>1.2663</v>
       </c>
-      <c r="V32" s="3">
+      <c r="V32" s="2">
         <f t="shared" si="1"/>
         <v>12.6200592</v>
       </c>
-      <c r="W32" s="3">
+      <c r="W32" s="2">
         <f t="shared" si="2"/>
         <v>1.570496256</v>
       </c>
-      <c r="X32" s="3">
+      <c r="X32" s="2">
         <f t="shared" si="3"/>
         <v>-0.378601776</v>
       </c>
@@ -8640,13 +8311,13 @@
         <f t="shared" si="5"/>
         <v>-1.514407104</v>
       </c>
-      <c r="AA32" s="6">
+      <c r="AA32" s="5">
         <f t="shared" si="6"/>
         <v>0.40468227424749165</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>6.5046296296296302E-3</v>
       </c>
       <c r="B33">
@@ -8692,20 +8363,20 @@
       <c r="O33">
         <v>12</v>
       </c>
-      <c r="T33" s="4"/>
-      <c r="U33" s="3">
+      <c r="T33" s="3"/>
+      <c r="U33" s="2">
         <f t="shared" si="7"/>
         <v>1.4483999999999999</v>
       </c>
-      <c r="V33" s="3">
+      <c r="V33" s="2">
         <f t="shared" si="1"/>
         <v>13.750905599999998</v>
       </c>
-      <c r="W33" s="3">
+      <c r="W33" s="2">
         <f t="shared" si="2"/>
         <v>1.5125996159999997</v>
       </c>
-      <c r="X33" s="3">
+      <c r="X33" s="2">
         <f t="shared" si="3"/>
         <v>3.4377263999999991E-2</v>
       </c>
@@ -8717,13 +8388,13 @@
         <f t="shared" si="5"/>
         <v>0.13750905599999996</v>
       </c>
-      <c r="AA33" s="6">
+      <c r="AA33" s="5">
         <f t="shared" si="6"/>
         <v>0.43478260869565222</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>6.7245370370370402E-3</v>
       </c>
       <c r="B34">
@@ -8769,20 +8440,20 @@
       <c r="O34">
         <v>12</v>
       </c>
-      <c r="T34" s="4"/>
-      <c r="U34" s="3">
+      <c r="T34" s="3"/>
+      <c r="U34" s="2">
         <f t="shared" si="7"/>
         <v>1.4307999999999998</v>
       </c>
-      <c r="V34" s="3">
+      <c r="V34" s="2">
         <f t="shared" si="1"/>
         <v>13.273747200000001</v>
       </c>
-      <c r="W34" s="3">
+      <c r="W34" s="2">
         <f t="shared" si="2"/>
         <v>1.371620544</v>
       </c>
-      <c r="X34" s="3">
+      <c r="X34" s="2">
         <f t="shared" si="3"/>
         <v>0.232290576</v>
       </c>
@@ -8794,13 +8465,13 @@
         <f t="shared" si="5"/>
         <v>0.92916230399999999</v>
       </c>
-      <c r="AA34" s="6">
+      <c r="AA34" s="5">
         <f t="shared" si="6"/>
         <v>0.41973244147157196</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35" s="1">
         <v>6.9675925925925903E-3</v>
       </c>
       <c r="B35">
@@ -8846,20 +8517,20 @@
       <c r="O35">
         <v>12</v>
       </c>
-      <c r="T35" s="4"/>
-      <c r="U35" s="3">
+      <c r="T35" s="3"/>
+      <c r="U35" s="2">
         <f t="shared" si="7"/>
         <v>1.2993999999999999</v>
       </c>
-      <c r="V35" s="3">
+      <c r="V35" s="2">
         <f t="shared" si="1"/>
         <v>12.0547296</v>
       </c>
-      <c r="W35" s="3">
+      <c r="W35" s="2">
         <f t="shared" si="2"/>
         <v>1.245655392</v>
       </c>
-      <c r="X35" s="3">
+      <c r="X35" s="2">
         <f t="shared" si="3"/>
         <v>0.21095776799999999</v>
       </c>
@@ -8871,13 +8542,13 @@
         <f t="shared" si="5"/>
         <v>0.84383107199999996</v>
       </c>
-      <c r="AA35" s="6">
+      <c r="AA35" s="5">
         <f t="shared" si="6"/>
         <v>0.38127090301003347</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36" s="1">
         <v>7.1759259259259302E-3</v>
       </c>
       <c r="B36">
@@ -8923,20 +8594,20 @@
       <c r="O36">
         <v>14</v>
       </c>
-      <c r="T36" s="4"/>
-      <c r="U36" s="3">
+      <c r="T36" s="3"/>
+      <c r="U36" s="2">
         <f t="shared" si="7"/>
         <v>1.5407999999999999</v>
       </c>
-      <c r="V36" s="3">
+      <c r="V36" s="2">
         <f t="shared" si="1"/>
         <v>14.458867199999998</v>
       </c>
-      <c r="W36" s="3">
+      <c r="W36" s="2">
         <f t="shared" si="2"/>
         <v>1.5422791679999996</v>
       </c>
-      <c r="X36" s="3">
+      <c r="X36" s="2">
         <f t="shared" si="3"/>
         <v>0.14458867199999997</v>
       </c>
@@ -8948,13 +8619,13 @@
         <f t="shared" si="5"/>
         <v>0.57835468799999989</v>
       </c>
-      <c r="AA36" s="6">
+      <c r="AA36" s="5">
         <f t="shared" si="6"/>
         <v>0.45652173913043481</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>7.4074074074074103E-3</v>
       </c>
       <c r="B37">
@@ -9000,20 +8671,20 @@
       <c r="O37">
         <v>14</v>
       </c>
-      <c r="T37" s="4"/>
-      <c r="U37" s="3">
+      <c r="T37" s="3"/>
+      <c r="U37" s="2">
         <f t="shared" si="7"/>
         <v>1.7465999999999999</v>
       </c>
-      <c r="V37" s="3">
+      <c r="V37" s="2">
         <f t="shared" si="1"/>
         <v>16.5819744</v>
       </c>
-      <c r="W37" s="3">
+      <c r="W37" s="2">
         <f t="shared" si="2"/>
         <v>1.8240171839999999</v>
       </c>
-      <c r="X37" s="3">
+      <c r="X37" s="2">
         <f t="shared" si="3"/>
         <v>4.1454935999999998E-2</v>
       </c>
@@ -9025,13 +8696,13 @@
         <f t="shared" si="5"/>
         <v>0.16581974399999999</v>
       </c>
-      <c r="AA37" s="6">
+      <c r="AA37" s="5">
         <f t="shared" si="6"/>
         <v>0.52675585284280935</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38" s="1">
         <v>7.6620370370370401E-3</v>
       </c>
       <c r="B38">
@@ -9044,7 +8715,7 @@
         <v>9.6</v>
       </c>
       <c r="E38">
-        <f t="shared" ref="E38:E69" si="8">100-F38</f>
+        <f t="shared" ref="E38:E61" si="8">100-F38</f>
         <v>8</v>
       </c>
       <c r="F38">
@@ -9077,20 +8748,20 @@
       <c r="O38">
         <v>14</v>
       </c>
-      <c r="T38" s="4"/>
-      <c r="U38" s="3">
+      <c r="T38" s="3"/>
+      <c r="U38" s="2">
         <f t="shared" si="7"/>
         <v>1.9198999999999999</v>
       </c>
-      <c r="V38" s="3">
-        <f t="shared" ref="V38:V69" si="9">1.44*((3.9*B38)+(1.1*U38))</f>
+      <c r="V38" s="2">
+        <f t="shared" ref="V38:V61" si="9">1.44*((3.9*B38)+(1.1*U38))</f>
         <v>17.8112016</v>
       </c>
-      <c r="W38" s="3">
+      <c r="W38" s="2">
         <f t="shared" ref="W38:W61" si="10">Y38/9</f>
         <v>1.8207006080000001</v>
       </c>
-      <c r="X38" s="3">
+      <c r="X38" s="2">
         <f t="shared" ref="X38:X61" si="11">Z38/4</f>
         <v>0.35622403200000002</v>
       </c>
@@ -9102,13 +8773,13 @@
         <f t="shared" ref="Z38:Z61" si="13">V38*E38/100</f>
         <v>1.4248961280000001</v>
       </c>
-      <c r="AA38" s="6">
+      <c r="AA38" s="5">
         <f t="shared" ref="AA38:AA61" si="14">C38/$B$2</f>
         <v>0.56354515050167231</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39" s="1">
         <v>7.8819444444444397E-3</v>
       </c>
       <c r="B39">
@@ -9157,20 +8828,20 @@
       <c r="S39">
         <v>11</v>
       </c>
-      <c r="T39" s="4"/>
-      <c r="U39" s="3">
+      <c r="T39" s="3"/>
+      <c r="U39" s="2">
         <f t="shared" si="7"/>
         <v>1.8975</v>
       </c>
-      <c r="V39" s="3">
+      <c r="V39" s="2">
         <f t="shared" si="9"/>
         <v>17.214119999999998</v>
       </c>
-      <c r="W39" s="3">
+      <c r="W39" s="2">
         <f t="shared" si="10"/>
         <v>1.5875243999999997</v>
       </c>
-      <c r="X39" s="3">
+      <c r="X39" s="2">
         <f t="shared" si="11"/>
         <v>0.73160009999999986</v>
       </c>
@@ -9182,13 +8853,13 @@
         <f t="shared" si="13"/>
         <v>2.9264003999999995</v>
       </c>
-      <c r="AA39" s="6">
+      <c r="AA39" s="5">
         <f t="shared" si="14"/>
         <v>0.54013377926421402</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40" s="1">
         <v>8.1018518518518497E-3</v>
       </c>
       <c r="B40">
@@ -9243,20 +8914,20 @@
       <c r="S40">
         <v>12</v>
       </c>
-      <c r="T40" s="4"/>
-      <c r="U40" s="3">
+      <c r="T40" s="3"/>
+      <c r="U40" s="2">
         <f t="shared" si="7"/>
         <v>2.0877999999999997</v>
       </c>
-      <c r="V40" s="3">
+      <c r="V40" s="2">
         <f t="shared" si="9"/>
         <v>19.368835199999996</v>
       </c>
-      <c r="W40" s="3">
+      <c r="W40" s="2">
         <f t="shared" si="10"/>
         <v>1.9799253759999995</v>
       </c>
-      <c r="X40" s="3">
+      <c r="X40" s="2">
         <f t="shared" si="11"/>
         <v>0.38737670399999991</v>
       </c>
@@ -9268,13 +8939,13 @@
         <f t="shared" si="13"/>
         <v>1.5495068159999996</v>
       </c>
-      <c r="AA40" s="6">
+      <c r="AA40" s="5">
         <f t="shared" si="14"/>
         <v>0.61204013377926425</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41" s="1">
         <v>8.3333333333333297E-3</v>
       </c>
       <c r="B41">
@@ -9320,20 +8991,20 @@
       <c r="O41">
         <v>14</v>
       </c>
-      <c r="T41" s="4"/>
-      <c r="U41" s="3">
+      <c r="T41" s="3"/>
+      <c r="U41" s="2">
         <f t="shared" si="7"/>
         <v>2.1945000000000001</v>
       </c>
-      <c r="V41" s="3">
+      <c r="V41" s="2">
         <f t="shared" si="9"/>
         <v>19.481687999999998</v>
       </c>
-      <c r="W41" s="3">
+      <c r="W41" s="2">
         <f t="shared" si="10"/>
         <v>1.68841296</v>
       </c>
-      <c r="X41" s="3">
+      <c r="X41" s="2">
         <f t="shared" si="11"/>
         <v>1.0714928399999999</v>
       </c>
@@ -9345,13 +9016,13 @@
         <f t="shared" si="13"/>
         <v>4.2859713599999996</v>
       </c>
-      <c r="AA41" s="6">
+      <c r="AA41" s="5">
         <f t="shared" si="14"/>
         <v>0.61036789297658867</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42" s="1">
         <v>8.5648148148148202E-3</v>
       </c>
       <c r="B42">
@@ -9397,20 +9068,20 @@
       <c r="O42">
         <v>14</v>
       </c>
-      <c r="T42" s="4"/>
-      <c r="U42" s="3">
+      <c r="T42" s="3"/>
+      <c r="U42" s="2">
         <f t="shared" si="7"/>
         <v>2.4095</v>
       </c>
-      <c r="V42" s="3">
+      <c r="V42" s="2">
         <f t="shared" si="9"/>
         <v>20.945447999999999</v>
       </c>
-      <c r="W42" s="3">
+      <c r="W42" s="2">
         <f t="shared" si="10"/>
         <v>1.6058176799999999</v>
       </c>
-      <c r="X42" s="3">
+      <c r="X42" s="2">
         <f t="shared" si="11"/>
         <v>1.62327222</v>
       </c>
@@ -9422,13 +9093,13 @@
         <f t="shared" si="13"/>
         <v>6.4930888800000002</v>
       </c>
-      <c r="AA42" s="6">
+      <c r="AA42" s="5">
         <f t="shared" si="14"/>
         <v>0.65384615384615385</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43" s="1">
         <v>8.8078703703703704E-3</v>
       </c>
       <c r="B43">
@@ -9474,20 +9145,20 @@
       <c r="O43">
         <v>14</v>
       </c>
-      <c r="T43" s="4"/>
-      <c r="U43" s="3">
+      <c r="T43" s="3"/>
+      <c r="U43" s="2">
         <f t="shared" si="7"/>
         <v>2.3369999999999997</v>
       </c>
-      <c r="V43" s="3">
+      <c r="V43" s="2">
         <f t="shared" si="9"/>
         <v>19.707408000000001</v>
       </c>
-      <c r="W43" s="3">
+      <c r="W43" s="2">
         <f t="shared" si="10"/>
         <v>1.33572432</v>
       </c>
-      <c r="X43" s="3">
+      <c r="X43" s="2">
         <f t="shared" si="11"/>
         <v>1.9214722800000001</v>
       </c>
@@ -9499,13 +9170,13 @@
         <f t="shared" si="13"/>
         <v>7.6858891200000006</v>
       </c>
-      <c r="AA43" s="6">
+      <c r="AA43" s="5">
         <f t="shared" si="14"/>
         <v>0.61036789297658867</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="A44" s="1">
         <v>9.0393518518518505E-3</v>
       </c>
       <c r="B44">
@@ -9551,20 +9222,20 @@
       <c r="O44">
         <v>14</v>
       </c>
-      <c r="T44" s="4"/>
-      <c r="U44" s="3">
+      <c r="T44" s="3"/>
+      <c r="U44" s="2">
         <f t="shared" si="7"/>
         <v>2.3920000000000003</v>
       </c>
-      <c r="V44" s="3">
+      <c r="V44" s="2">
         <f t="shared" si="9"/>
         <v>20.580768000000003</v>
       </c>
-      <c r="W44" s="3">
+      <c r="W44" s="2">
         <f t="shared" si="10"/>
         <v>1.5092563200000002</v>
       </c>
-      <c r="X44" s="3">
+      <c r="X44" s="2">
         <f t="shared" si="11"/>
         <v>1.7493652800000001</v>
       </c>
@@ -9576,13 +9247,13 @@
         <f t="shared" si="13"/>
         <v>6.9974611200000005</v>
       </c>
-      <c r="AA44" s="6">
+      <c r="AA44" s="5">
         <f t="shared" si="14"/>
         <v>0.64046822742474918</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45" s="1">
         <v>9.2708333333333306E-3</v>
       </c>
       <c r="B45">
@@ -9628,20 +9299,20 @@
       <c r="O45">
         <v>15.9</v>
       </c>
-      <c r="T45" s="4"/>
-      <c r="U45" s="3">
+      <c r="T45" s="3"/>
+      <c r="U45" s="2">
         <f t="shared" si="7"/>
         <v>2.4239999999999999</v>
       </c>
-      <c r="V45" s="3">
+      <c r="V45" s="2">
         <f t="shared" si="9"/>
         <v>20.856095999999997</v>
       </c>
-      <c r="W45" s="3">
+      <c r="W45" s="2">
         <f t="shared" si="10"/>
         <v>1.5526204799999996</v>
       </c>
-      <c r="X45" s="3">
+      <c r="X45" s="2">
         <f t="shared" si="11"/>
         <v>1.7206279199999996</v>
       </c>
@@ -9653,13 +9324,13 @@
         <f t="shared" si="13"/>
         <v>6.8825116799999986</v>
       </c>
-      <c r="AA45" s="6">
+      <c r="AA45" s="5">
         <f t="shared" si="14"/>
         <v>0.6488294314381271</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46" s="1">
         <v>9.4907407407407406E-3</v>
       </c>
       <c r="B46">
@@ -9705,20 +9376,20 @@
       <c r="O46">
         <v>16</v>
       </c>
-      <c r="T46" s="4"/>
-      <c r="U46" s="3">
+      <c r="T46" s="3"/>
+      <c r="U46" s="2">
         <f t="shared" si="7"/>
         <v>2.7600000000000002</v>
       </c>
-      <c r="V46" s="3">
+      <c r="V46" s="2">
         <f t="shared" si="9"/>
         <v>23.747039999999998</v>
       </c>
-      <c r="W46" s="3">
+      <c r="W46" s="2">
         <f t="shared" si="10"/>
         <v>1.7678351999999997</v>
       </c>
-      <c r="X46" s="3">
+      <c r="X46" s="2">
         <f t="shared" si="11"/>
         <v>1.9591307999999998</v>
       </c>
@@ -9730,13 +9401,13 @@
         <f t="shared" si="13"/>
         <v>7.8365231999999994</v>
       </c>
-      <c r="AA46" s="6">
+      <c r="AA46" s="5">
         <f t="shared" si="14"/>
         <v>0.73913043478260876</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="A47" s="1">
         <v>9.7337962962962994E-3</v>
       </c>
       <c r="B47">
@@ -9782,20 +9453,20 @@
       <c r="O47">
         <v>16</v>
       </c>
-      <c r="T47" s="4"/>
-      <c r="U47" s="3">
+      <c r="T47" s="3"/>
+      <c r="U47" s="2">
         <f t="shared" si="7"/>
         <v>2.9356</v>
       </c>
-      <c r="V47" s="3">
+      <c r="V47" s="2">
         <f t="shared" si="9"/>
         <v>24.755270400000001</v>
       </c>
-      <c r="W47" s="3">
+      <c r="W47" s="2">
         <f t="shared" si="10"/>
         <v>1.6228455039999998</v>
       </c>
-      <c r="X47" s="3">
+      <c r="X47" s="2">
         <f t="shared" si="11"/>
         <v>2.5374152159999999</v>
       </c>
@@ -9807,13 +9478,13 @@
         <f t="shared" si="13"/>
         <v>10.149660863999999</v>
       </c>
-      <c r="AA47" s="6">
+      <c r="AA47" s="5">
         <f t="shared" si="14"/>
         <v>0.76588628762541799</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="A48" s="1">
         <v>9.9537037037037007E-3</v>
       </c>
       <c r="B48">
@@ -9859,20 +9530,20 @@
       <c r="O48">
         <v>16</v>
       </c>
-      <c r="T48" s="4"/>
-      <c r="U48" s="3">
+      <c r="T48" s="3"/>
+      <c r="U48" s="2">
         <f t="shared" si="7"/>
         <v>2.9834999999999998</v>
       </c>
-      <c r="V48" s="3">
+      <c r="V48" s="2">
         <f t="shared" si="9"/>
         <v>24.438023999999999</v>
       </c>
-      <c r="W48" s="3">
+      <c r="W48" s="2">
         <f t="shared" si="10"/>
         <v>1.3305146399999999</v>
       </c>
-      <c r="X48" s="3">
+      <c r="X48" s="2">
         <f t="shared" si="11"/>
         <v>3.1158480599999994</v>
       </c>
@@ -9884,13 +9555,13 @@
         <f t="shared" si="13"/>
         <v>12.463392239999997</v>
       </c>
-      <c r="AA48" s="6">
+      <c r="AA48" s="5">
         <f t="shared" si="14"/>
         <v>0.75083612040133785</v>
       </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="A49" s="1">
         <v>1.0196759259259299E-2</v>
       </c>
       <c r="B49">
@@ -9939,20 +9610,20 @@
       <c r="S49">
         <v>15</v>
       </c>
-      <c r="T49" s="4"/>
-      <c r="U49" s="3">
+      <c r="T49" s="3"/>
+      <c r="U49" s="2">
         <f t="shared" si="7"/>
         <v>3.5027999999999997</v>
       </c>
-      <c r="V49" s="3">
+      <c r="V49" s="2">
         <f t="shared" si="9"/>
         <v>28.967155199999993</v>
       </c>
-      <c r="W49" s="3">
+      <c r="W49" s="2">
         <f t="shared" si="10"/>
         <v>1.7058435839999995</v>
       </c>
-      <c r="X49" s="3">
+      <c r="X49" s="2">
         <f t="shared" si="11"/>
         <v>3.4036407359999994</v>
       </c>
@@ -9964,13 +9635,13 @@
         <f t="shared" si="13"/>
         <v>13.614562943999998</v>
       </c>
-      <c r="AA49" s="6">
+      <c r="AA49" s="5">
         <f t="shared" si="14"/>
         <v>0.89297658862876261</v>
       </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="A50" s="1">
         <v>1.04282407407407E-2</v>
       </c>
       <c r="B50">
@@ -10016,20 +9687,20 @@
       <c r="O50">
         <v>16</v>
       </c>
-      <c r="T50" s="4"/>
-      <c r="U50" s="3">
+      <c r="T50" s="3"/>
+      <c r="U50" s="2">
         <f t="shared" si="7"/>
         <v>3.6539999999999999</v>
       </c>
-      <c r="V50" s="3">
+      <c r="V50" s="2">
         <f t="shared" si="9"/>
         <v>28.588895999999995</v>
       </c>
-      <c r="W50" s="3">
+      <c r="W50" s="2">
         <f t="shared" si="10"/>
         <v>1.0482595199999998</v>
       </c>
-      <c r="X50" s="3">
+      <c r="X50" s="2">
         <f t="shared" si="11"/>
         <v>4.7886400799999986</v>
       </c>
@@ -10041,13 +9712,13 @@
         <f t="shared" si="13"/>
         <v>19.154560319999995</v>
       </c>
-      <c r="AA50" s="6">
+      <c r="AA50" s="5">
         <f t="shared" si="14"/>
         <v>0.86789297658862874</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="A51" s="1">
         <v>1.06481481481482E-2</v>
       </c>
       <c r="B51">
@@ -10093,20 +9764,20 @@
       <c r="O51">
         <v>16</v>
       </c>
-      <c r="T51" s="4"/>
-      <c r="U51" s="3">
+      <c r="T51" s="3"/>
+      <c r="U51" s="2">
         <f t="shared" si="7"/>
         <v>3.5910000000000002</v>
       </c>
-      <c r="V51" s="3">
+      <c r="V51" s="2">
         <f t="shared" si="9"/>
         <v>28.095983999999998</v>
       </c>
-      <c r="W51" s="3">
+      <c r="W51" s="2">
         <f t="shared" si="10"/>
         <v>1.03018608</v>
       </c>
-      <c r="X51" s="3">
+      <c r="X51" s="2">
         <f t="shared" si="11"/>
         <v>4.7060773199999995</v>
       </c>
@@ -10118,13 +9789,13 @@
         <f t="shared" si="13"/>
         <v>18.824309279999998</v>
       </c>
-      <c r="AA51" s="6">
+      <c r="AA51" s="5">
         <f t="shared" si="14"/>
         <v>0.85284280936454848</v>
       </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="A52" s="1">
         <v>1.08912037037037E-2</v>
       </c>
       <c r="B52">
@@ -10170,20 +9841,20 @@
       <c r="O52">
         <v>16</v>
       </c>
-      <c r="T52" s="4"/>
-      <c r="U52" s="3">
+      <c r="T52" s="3"/>
+      <c r="U52" s="2">
         <f t="shared" si="7"/>
         <v>3.9312000000000005</v>
       </c>
-      <c r="V52" s="3">
+      <c r="V52" s="2">
         <f t="shared" si="9"/>
         <v>30.488140799999996</v>
       </c>
-      <c r="W52" s="3">
+      <c r="W52" s="2">
         <f t="shared" si="10"/>
         <v>1.01627136</v>
       </c>
-      <c r="X52" s="3">
+      <c r="X52" s="2">
         <f t="shared" si="11"/>
         <v>5.3354246399999985</v>
       </c>
@@ -10195,13 +9866,13 @@
         <f t="shared" si="13"/>
         <v>21.341698559999994</v>
       </c>
-      <c r="AA52" s="6">
+      <c r="AA52" s="5">
         <f t="shared" si="14"/>
         <v>0.92474916387959871</v>
       </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="A53" s="1">
         <v>1.1122685185185201E-2</v>
       </c>
       <c r="B53">
@@ -10247,20 +9918,20 @@
       <c r="O53">
         <v>16</v>
       </c>
-      <c r="T53" s="4"/>
-      <c r="U53" s="3">
+      <c r="T53" s="3"/>
+      <c r="U53" s="2">
         <f t="shared" si="7"/>
         <v>3.8856999999999999</v>
       </c>
-      <c r="V53" s="3">
+      <c r="V53" s="2">
         <f t="shared" si="9"/>
         <v>30.135268799999999</v>
       </c>
-      <c r="W53" s="3">
+      <c r="W53" s="2">
         <f t="shared" si="10"/>
         <v>1.0045089599999999</v>
       </c>
-      <c r="X53" s="3">
+      <c r="X53" s="2">
         <f t="shared" si="11"/>
         <v>5.2736720400000001</v>
       </c>
@@ -10272,13 +9943,13 @@
         <f t="shared" si="13"/>
         <v>21.09468816</v>
       </c>
-      <c r="AA53" s="6">
+      <c r="AA53" s="5">
         <f t="shared" si="14"/>
         <v>0.91304347826086962</v>
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+      <c r="A54" s="1">
         <v>1.13425925925926E-2</v>
       </c>
       <c r="B54">
@@ -10324,20 +9995,20 @@
       <c r="O54">
         <v>17.899999999999999</v>
       </c>
-      <c r="T54" s="4"/>
-      <c r="U54" s="3">
+      <c r="T54" s="3"/>
+      <c r="U54" s="2">
         <f t="shared" si="7"/>
         <v>3.9948999999999999</v>
       </c>
-      <c r="V54" s="3">
+      <c r="V54" s="2">
         <f t="shared" si="9"/>
         <v>30.982161599999998</v>
       </c>
-      <c r="W54" s="3">
+      <c r="W54" s="2">
         <f t="shared" si="10"/>
         <v>0.96388947199999997</v>
       </c>
-      <c r="X54" s="3">
+      <c r="X54" s="2">
         <f t="shared" si="11"/>
         <v>5.5767890879999991</v>
       </c>
@@ -10349,13 +10020,13 @@
         <f t="shared" si="13"/>
         <v>22.307156351999996</v>
       </c>
-      <c r="AA54" s="6">
+      <c r="AA54" s="5">
         <f t="shared" si="14"/>
         <v>0.93812709030100339</v>
       </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+      <c r="A55" s="1">
         <v>1.15856481481481E-2</v>
       </c>
       <c r="B55">
@@ -10401,20 +10072,20 @@
       <c r="O55">
         <v>18</v>
       </c>
-      <c r="T55" s="4"/>
-      <c r="U55" s="3">
+      <c r="T55" s="3"/>
+      <c r="U55" s="2">
         <f t="shared" si="7"/>
         <v>4.1943000000000001</v>
       </c>
-      <c r="V55" s="3">
+      <c r="V55" s="2">
         <f t="shared" si="9"/>
         <v>31.971931199999997</v>
       </c>
-      <c r="W55" s="3">
+      <c r="W55" s="2">
         <f t="shared" si="10"/>
         <v>0.78153609599999996</v>
       </c>
-      <c r="X55" s="3">
+      <c r="X55" s="2">
         <f t="shared" si="11"/>
         <v>6.2345265839999993</v>
       </c>
@@ -10426,13 +10097,13 @@
         <f t="shared" si="13"/>
         <v>24.938106335999997</v>
       </c>
-      <c r="AA55" s="6">
+      <c r="AA55" s="5">
         <f t="shared" si="14"/>
         <v>0.96321070234113715</v>
       </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="A56" s="1">
         <v>1.18055555555556E-2</v>
       </c>
       <c r="B56">
@@ -10481,20 +10152,20 @@
       <c r="S56">
         <v>17</v>
       </c>
-      <c r="T56" s="4"/>
-      <c r="U56" s="3">
+      <c r="T56" s="3"/>
+      <c r="U56" s="2">
         <f t="shared" si="7"/>
         <v>4.5395999999999992</v>
       </c>
-      <c r="V56" s="3">
+      <c r="V56" s="2">
         <f t="shared" si="9"/>
         <v>33.473606399999994</v>
       </c>
-      <c r="W56" s="3">
+      <c r="W56" s="2">
         <f t="shared" si="10"/>
         <v>0.37192895999999992</v>
       </c>
-      <c r="X56" s="3">
+      <c r="X56" s="2">
         <f t="shared" si="11"/>
         <v>7.5315614399999982</v>
       </c>
@@ -10506,13 +10177,13 @@
         <f t="shared" si="13"/>
         <v>30.126245759999993</v>
       </c>
-      <c r="AA56" s="6">
+      <c r="AA56" s="5">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="A57" s="1">
         <v>1.2037037037037001E-2</v>
       </c>
       <c r="B57">
@@ -10561,20 +10232,20 @@
       <c r="S57">
         <v>18</v>
       </c>
-      <c r="T57" s="4"/>
-      <c r="U57" s="3">
+      <c r="T57" s="3"/>
+      <c r="U57" s="2">
         <f t="shared" si="7"/>
         <v>4.3512000000000004</v>
       </c>
-      <c r="V57" s="3">
+      <c r="V57" s="2">
         <f t="shared" si="9"/>
         <v>31.827340800000002</v>
       </c>
-      <c r="W57" s="3">
+      <c r="W57" s="2">
         <f t="shared" si="10"/>
         <v>0.17681856000000001</v>
       </c>
-      <c r="X57" s="3">
+      <c r="X57" s="2">
         <f t="shared" si="11"/>
         <v>7.5589934400000001</v>
       </c>
@@ -10586,13 +10257,13 @@
         <f t="shared" si="13"/>
         <v>30.23597376</v>
       </c>
-      <c r="AA57" s="6">
+      <c r="AA57" s="5">
         <f t="shared" si="14"/>
         <v>0.948160535117057</v>
       </c>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="A58" s="1">
         <v>1.22685185185185E-2</v>
       </c>
       <c r="B58">
@@ -10641,20 +10312,20 @@
       <c r="S58">
         <v>19</v>
       </c>
-      <c r="T58" s="4"/>
-      <c r="U58" s="3">
+      <c r="T58" s="3"/>
+      <c r="U58" s="2">
         <f t="shared" si="7"/>
         <v>4.2300000000000004</v>
       </c>
-      <c r="V58" s="3">
+      <c r="V58" s="2">
         <f t="shared" si="9"/>
         <v>30.455999999999996</v>
       </c>
-      <c r="W58" s="3">
+      <c r="W58" s="2">
         <f t="shared" si="10"/>
         <v>3.3839999999999995E-2</v>
       </c>
-      <c r="X58" s="3">
+      <c r="X58" s="2">
         <f t="shared" si="11"/>
         <v>7.5378599999999993</v>
       </c>
@@ -10666,13 +10337,13 @@
         <f t="shared" si="13"/>
         <v>30.151439999999997</v>
       </c>
-      <c r="AA58" s="6">
+      <c r="AA58" s="5">
         <f t="shared" si="14"/>
         <v>0.9046822742474917</v>
       </c>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+      <c r="A59" s="1">
         <v>1.2962962962963001E-2</v>
       </c>
       <c r="B59">
@@ -10718,20 +10389,20 @@
       <c r="O59">
         <v>14</v>
       </c>
-      <c r="T59" s="4"/>
-      <c r="U59" s="3">
+      <c r="T59" s="3"/>
+      <c r="U59" s="2">
         <f t="shared" si="7"/>
         <v>3.5904000000000003</v>
       </c>
-      <c r="V59" s="3">
+      <c r="V59" s="2">
         <f t="shared" si="9"/>
         <v>25.4555136</v>
       </c>
-      <c r="W59" s="3">
+      <c r="W59" s="2">
         <f t="shared" si="10"/>
         <v>-0.16970342399999999</v>
       </c>
-      <c r="X59" s="3">
+      <c r="X59" s="2">
         <f t="shared" si="11"/>
         <v>6.7457111039999997</v>
       </c>
@@ -10743,13 +10414,13 @@
         <f t="shared" si="13"/>
         <v>26.982844415999999</v>
       </c>
-      <c r="AA59" s="6">
+      <c r="AA59" s="5">
         <f t="shared" si="14"/>
         <v>0.75250836120401343</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+      <c r="A60" s="1">
         <v>1.27314814814815E-2</v>
       </c>
       <c r="B60">
@@ -10795,20 +10466,20 @@
       <c r="O60">
         <v>0</v>
       </c>
-      <c r="T60" s="4"/>
-      <c r="U60" s="3">
+      <c r="T60" s="3"/>
+      <c r="U60" s="2">
         <f t="shared" si="7"/>
         <v>2.6880000000000002</v>
       </c>
-      <c r="V60" s="3">
+      <c r="V60" s="2">
         <f t="shared" si="9"/>
         <v>18.634751999999999</v>
       </c>
-      <c r="W60" s="3">
+      <c r="W60" s="2">
         <f t="shared" si="10"/>
         <v>-0.35198975999999998</v>
       </c>
-      <c r="X60" s="3">
+      <c r="X60" s="2">
         <f t="shared" si="11"/>
         <v>5.4506649599999992</v>
       </c>
@@ -10820,13 +10491,13 @@
         <f t="shared" si="13"/>
         <v>21.802659839999997</v>
       </c>
-      <c r="AA60" s="6">
+      <c r="AA60" s="5">
         <f t="shared" si="14"/>
         <v>0.54849498327759194</v>
       </c>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+      <c r="A61" s="1">
         <v>1.2962962962963001E-2</v>
       </c>
       <c r="B61">
@@ -10878,20 +10549,20 @@
       <c r="R61">
         <v>96</v>
       </c>
-      <c r="T61" s="4"/>
-      <c r="U61" s="3">
+      <c r="T61" s="3"/>
+      <c r="U61" s="2">
         <f t="shared" si="7"/>
         <v>2.3220000000000001</v>
       </c>
-      <c r="V61" s="3">
+      <c r="V61" s="2">
         <f t="shared" si="9"/>
         <v>15.752447999999999</v>
       </c>
-      <c r="W61" s="3">
+      <c r="W61" s="2">
         <f t="shared" si="10"/>
         <v>-0.43756799999999996</v>
       </c>
-      <c r="X61" s="3">
+      <c r="X61" s="2">
         <f t="shared" si="11"/>
         <v>4.9226399999999995</v>
       </c>
@@ -10903,13 +10574,13 @@
         <f t="shared" si="13"/>
         <v>19.690559999999998</v>
       </c>
-      <c r="AA61" s="6">
+      <c r="AA61" s="5">
         <f t="shared" si="14"/>
         <v>0.45986622073578598</v>
       </c>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+      <c r="A62" s="1">
         <v>1.4016203703703701E-2</v>
       </c>
       <c r="Q62">
@@ -10920,7 +10591,7 @@
       </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+      <c r="A63" s="1">
         <v>1.51273148148148E-2</v>
       </c>
       <c r="Q63">
@@ -10931,7 +10602,7 @@
       </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+      <c r="A64" s="1">
         <v>1.6226851851851899E-2</v>
       </c>
       <c r="Q64">
@@ -10942,7 +10613,7 @@
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="A65" s="1">
         <v>1.68287037037037E-2</v>
       </c>
       <c r="M65">
@@ -10956,7 +10627,7 @@
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
+      <c r="A66" s="1">
         <v>1.8287037037037001E-2</v>
       </c>
       <c r="Q66">
@@ -10988,7 +10659,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -10996,7 +10667,7 @@
         <f>VO2max!M5</f>
         <v>HR bpm</v>
       </c>
-      <c r="B1" s="6" t="str">
+      <c r="B1" s="5" t="str">
         <f>VO2max!AA5</f>
         <v>%VO2max</v>
       </c>
@@ -11006,7 +10677,7 @@
         <f>VO2max!M11</f>
         <v>80</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <f>VO2max!AA11</f>
         <v>9.1973244147157199E-2</v>
       </c>
@@ -11016,7 +10687,7 @@
         <f>VO2max!M12</f>
         <v>78</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <f>VO2max!AA12</f>
         <v>0.14046822742474918</v>
       </c>
@@ -11026,7 +10697,7 @@
         <f>VO2max!M13</f>
         <v>84</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <f>VO2max!AA13</f>
         <v>0.16722408026755853</v>
       </c>
@@ -11036,7 +10707,7 @@
         <f>VO2max!M14</f>
         <v>80</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>VO2max!AA14</f>
         <v>0.13043478260869565</v>
       </c>
@@ -11046,7 +10717,7 @@
         <f>VO2max!M15</f>
         <v>78</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <f>VO2max!AA15</f>
         <v>0.13377926421404682</v>
       </c>
@@ -11056,7 +10727,7 @@
         <f>VO2max!M16</f>
         <v>74</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <f>VO2max!AA16</f>
         <v>0.1020066889632107</v>
       </c>
@@ -11066,7 +10737,7 @@
         <f>VO2max!M17</f>
         <v>76</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <f>VO2max!AA17</f>
         <v>0.12876254180602006</v>
       </c>
@@ -11076,7 +10747,7 @@
         <f>VO2max!M18</f>
         <v>85</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <f>VO2max!AA18</f>
         <v>0.1387959866220736</v>
       </c>
@@ -11086,7 +10757,7 @@
         <f>VO2max!M19</f>
         <v>92</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <f>VO2max!AA19</f>
         <v>9.1973244147157199E-2</v>
       </c>
@@ -11096,7 +10767,7 @@
         <f>VO2max!M20</f>
         <v>88</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f>VO2max!AA20</f>
         <v>0.21070234113712374</v>
       </c>
@@ -11106,7 +10777,7 @@
         <f>VO2max!M21</f>
         <v>88</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <f>VO2max!AA21</f>
         <v>0.25752508361204013</v>
       </c>
@@ -11116,7 +10787,7 @@
         <f>VO2max!M22</f>
         <v>80</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <f>VO2max!AA22</f>
         <v>0.22073578595317725</v>
       </c>
@@ -11126,7 +10797,7 @@
         <f>VO2max!M23</f>
         <v>86</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <f>VO2max!AA23</f>
         <v>0.31103678929765888</v>
       </c>
@@ -11136,7 +10807,7 @@
         <f>VO2max!M24</f>
         <v>93</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <f>VO2max!AA24</f>
         <v>0.22742474916387961</v>
       </c>
@@ -11146,7 +10817,7 @@
         <f>VO2max!M25</f>
         <v>94</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <f>VO2max!AA25</f>
         <v>0.27257525083612044</v>
       </c>
@@ -11156,7 +10827,7 @@
         <f>VO2max!M26</f>
         <v>94</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <f>VO2max!AA26</f>
         <v>0.25919732441471571</v>
       </c>
@@ -11166,7 +10837,7 @@
         <f>VO2max!M27</f>
         <v>99</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <f>VO2max!AA27</f>
         <v>0.30602006688963213</v>
       </c>
@@ -11176,7 +10847,7 @@
         <f>VO2max!M28</f>
         <v>106</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <f>VO2max!AA28</f>
         <v>0.32107023411371238</v>
       </c>
@@ -11186,7 +10857,7 @@
         <f>VO2max!M29</f>
         <v>109</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <f>VO2max!AA29</f>
         <v>0.37290969899665555</v>
       </c>
@@ -11196,7 +10867,7 @@
         <f>VO2max!M30</f>
         <v>110</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <f>VO2max!AA30</f>
         <v>0.43812709030100333</v>
       </c>
@@ -11206,7 +10877,7 @@
         <f>VO2max!M31</f>
         <v>109</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <f>VO2max!AA31</f>
         <v>0.33946488294314386</v>
       </c>
@@ -11216,7 +10887,7 @@
         <f>VO2max!M32</f>
         <v>106</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <f>VO2max!AA32</f>
         <v>0.40468227424749165</v>
       </c>
@@ -11226,7 +10897,7 @@
         <f>VO2max!M33</f>
         <v>110</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <f>VO2max!AA33</f>
         <v>0.43478260869565222</v>
       </c>
@@ -11236,7 +10907,7 @@
         <f>VO2max!M34</f>
         <v>112</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <f>VO2max!AA34</f>
         <v>0.41973244147157196</v>
       </c>
@@ -11246,7 +10917,7 @@
         <f>VO2max!M35</f>
         <v>109</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <f>VO2max!AA35</f>
         <v>0.38127090301003347</v>
       </c>
@@ -11256,7 +10927,7 @@
         <f>VO2max!M36</f>
         <v>110</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <f>VO2max!AA36</f>
         <v>0.45652173913043481</v>
       </c>
@@ -11266,7 +10937,7 @@
         <f>VO2max!M37</f>
         <v>119</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <f>VO2max!AA37</f>
         <v>0.52675585284280935</v>
       </c>
@@ -11276,7 +10947,7 @@
         <f>VO2max!M38</f>
         <v>129</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <f>VO2max!AA38</f>
         <v>0.56354515050167231</v>
       </c>
@@ -11286,7 +10957,7 @@
         <f>VO2max!M39</f>
         <v>135</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <f>VO2max!AA39</f>
         <v>0.54013377926421402</v>
       </c>
@@ -11296,7 +10967,7 @@
         <f>VO2max!M40</f>
         <v>131</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <f>VO2max!AA40</f>
         <v>0.61204013377926425</v>
       </c>
@@ -11306,7 +10977,7 @@
         <f>VO2max!M41</f>
         <v>132</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <f>VO2max!AA41</f>
         <v>0.61036789297658867</v>
       </c>
@@ -11316,7 +10987,7 @@
         <f>VO2max!M42</f>
         <v>138</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <f>VO2max!AA42</f>
         <v>0.65384615384615385</v>
       </c>
@@ -11326,7 +10997,7 @@
         <f>VO2max!M43</f>
         <v>138</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <f>VO2max!AA43</f>
         <v>0.61036789297658867</v>
       </c>
@@ -11336,7 +11007,7 @@
         <f>VO2max!M44</f>
         <v>135</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <f>VO2max!AA44</f>
         <v>0.64046822742474918</v>
       </c>
@@ -11346,7 +11017,7 @@
         <f>VO2max!M45</f>
         <v>137</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <f>VO2max!AA45</f>
         <v>0.6488294314381271</v>
       </c>
@@ -11356,7 +11027,7 @@
         <f>VO2max!M46</f>
         <v>147</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <f>VO2max!AA46</f>
         <v>0.73913043478260876</v>
       </c>
@@ -11366,7 +11037,7 @@
         <f>VO2max!M47</f>
         <v>150</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <f>VO2max!AA47</f>
         <v>0.76588628762541799</v>
       </c>
@@ -11376,7 +11047,7 @@
         <f>VO2max!M48</f>
         <v>155</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <f>VO2max!AA48</f>
         <v>0.75083612040133785</v>
       </c>
@@ -11386,7 +11057,7 @@
         <f>VO2max!M49</f>
         <v>158</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <f>VO2max!AA49</f>
         <v>0.89297658862876261</v>
       </c>
@@ -11396,7 +11067,7 @@
         <f>VO2max!M50</f>
         <v>161</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <f>VO2max!AA50</f>
         <v>0.86789297658862874</v>
       </c>
@@ -11406,7 +11077,7 @@
         <f>VO2max!M51</f>
         <v>161</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <f>VO2max!AA51</f>
         <v>0.85284280936454848</v>
       </c>
@@ -11416,7 +11087,7 @@
         <f>VO2max!M52</f>
         <v>163</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <f>VO2max!AA52</f>
         <v>0.92474916387959871</v>
       </c>
@@ -11426,7 +11097,7 @@
         <f>VO2max!M53</f>
         <v>165</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <f>VO2max!AA53</f>
         <v>0.91304347826086962</v>
       </c>
@@ -11436,7 +11107,7 @@
         <f>VO2max!M54</f>
         <v>167</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <f>VO2max!AA54</f>
         <v>0.93812709030100339</v>
       </c>
@@ -11446,7 +11117,7 @@
         <f>VO2max!M55</f>
         <v>172</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="5">
         <f>VO2max!AA55</f>
         <v>0.96321070234113715</v>
       </c>
@@ -11456,7 +11127,7 @@
         <f>VO2max!M56</f>
         <v>173</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="5">
         <f>VO2max!AA56</f>
         <v>1</v>
       </c>
@@ -11497,281 +11168,281 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <f>VO2max!M32</f>
         <v>106</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <f>VO2max!G32</f>
         <v>0.67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <f>VO2max!M33</f>
         <v>110</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <f>VO2max!G33</f>
         <v>0.71</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <f>VO2max!M34</f>
         <v>112</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <f>VO2max!G34</f>
         <v>0.73</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <f>VO2max!M35</f>
         <v>109</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <f>VO2max!G35</f>
         <v>0.73</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <f>VO2max!M36</f>
         <v>110</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <f>VO2max!G36</f>
         <v>0.72</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <f>VO2max!M37</f>
         <v>119</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <f>VO2max!G37</f>
         <v>0.71</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <f>VO2max!M38</f>
         <v>129</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <f>VO2max!G38</f>
         <v>0.73</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <f>VO2max!M39</f>
         <v>135</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f>VO2max!G39</f>
         <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <f>VO2max!M40</f>
         <v>131</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <f>VO2max!G40</f>
         <v>0.73</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <f>VO2max!M41</f>
         <v>132</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f>VO2max!G41</f>
         <v>0.77</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <f>VO2max!M42</f>
         <v>138</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f>VO2max!G42</f>
         <v>0.79</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <f>VO2max!M43</f>
         <v>138</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f>VO2max!G43</f>
         <v>0.82</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <f>VO2max!M44</f>
         <v>135</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f>VO2max!G44</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <f>VO2max!M45</f>
         <v>137</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f>VO2max!G45</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <f>VO2max!M46</f>
         <v>147</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <f>VO2max!G46</f>
         <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <f>VO2max!M47</f>
         <v>150</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <f>VO2max!G47</f>
         <v>0.82</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <f>VO2max!M48</f>
         <v>155</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <f>VO2max!G48</f>
         <v>0.85</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <f>VO2max!M49</f>
         <v>158</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <f>VO2max!G49</f>
         <v>0.84</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <f>VO2max!M50</f>
         <v>161</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <f>VO2max!G50</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <f>VO2max!M51</f>
         <v>161</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <f>VO2max!G51</f>
         <v>0.9</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <f>VO2max!M52</f>
         <v>163</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <f>VO2max!G52</f>
         <v>0.91</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <f>VO2max!M53</f>
         <v>165</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <f>VO2max!G53</f>
         <v>0.91</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <f>VO2max!M54</f>
         <v>167</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <f>VO2max!G54</f>
         <v>0.91</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <f>VO2max!M55</f>
         <v>172</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <f>VO2max!G55</f>
         <v>0.93</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <f>VO2max!M56</f>
         <v>173</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <f>VO2max!G56</f>
         <v>0.97</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <f>VO2max!M57</f>
         <v>176</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <f>VO2max!G57</f>
         <v>0.98</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <f>VO2max!M58</f>
         <v>176</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <f>VO2max!G58</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <f>VO2max!M59</f>
         <v>180</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <f>VO2max!G59</f>
         <v>1.02</v>
       </c>
@@ -12519,511 +12190,511 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <f>VO2max!AA6</f>
         <v>7.3578595317725759E-2</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <f>VO2max!W6</f>
         <v>0.28252313600000001</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <f>VO2max!AA7</f>
         <v>7.8595317725752512E-2</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <f>VO2max!W7</f>
         <v>0.31019675200000002</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <f>VO2max!AA8</f>
         <v>7.0234113712374591E-2</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <f>VO2max!W8</f>
         <v>0.28400697599999991</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <f>VO2max!AA9</f>
         <v>8.1939799331103694E-2</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <f>VO2max!W9</f>
         <v>0.32985763200000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <f>VO2max!AA10</f>
         <v>8.1939799331103694E-2</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <f>VO2max!W10</f>
         <v>0.33773500799999995</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <f>VO2max!AA11</f>
         <v>9.1973244147157199E-2</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <f>VO2max!W11</f>
         <v>0.36919180799999995</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <f>VO2max!AA12</f>
         <v>0.14046822742474918</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <f>VO2max!W12</f>
         <v>0.53656512000000012</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <f>VO2max!AA13</f>
         <v>0.16722408026755853</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <f>VO2max!W13</f>
         <v>6.9937919999999987E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <f>VO2max!AA14</f>
         <v>0.13043478260869565</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <f>VO2max!W14</f>
         <v>0.40027516800000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <f>VO2max!AA15</f>
         <v>0.13377926421404682</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <f>VO2max!W15</f>
         <v>0.37115084800000003</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <f>VO2max!AA16</f>
         <v>0.1020066889632107</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <f>VO2max!W16</f>
         <v>0.31195366400000002</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <f>VO2max!AA17</f>
         <v>0.12876254180602006</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <f>VO2max!W17</f>
         <v>0.4694657599999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <f>VO2max!AA18</f>
         <v>0.1387959866220736</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <f>VO2max!W18</f>
         <v>0.50876279999999996</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <f>VO2max!AA19</f>
         <v>9.1973244147157199E-2</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <f>VO2max!W19</f>
         <v>0.30989721600000003</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <f>VO2max!AA20</f>
         <v>0.21070234113712374</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <f>VO2max!W20</f>
         <v>0.83733091200000009</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <f>VO2max!AA21</f>
         <v>0.25752508361204013</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <f>VO2max!W21</f>
         <v>1.0721568000000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <f>VO2max!AA22</f>
         <v>0.22073578595317725</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <f>VO2max!W22</f>
         <v>0.93547896000000008</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <f>VO2max!AA23</f>
         <v>0.31103678929765888</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <f>VO2max!W23</f>
         <v>1.4342759679999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <f>VO2max!AA24</f>
         <v>0.22742474916387961</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <f>VO2max!W24</f>
         <v>0.93363782400000028</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <f>VO2max!AA25</f>
         <v>0.27257525083612044</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <f>VO2max!W25</f>
         <v>1.1534546399999999</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <f>VO2max!AA26</f>
         <v>0.25919732441471571</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <f>VO2max!W26</f>
         <v>0.99883660799999996</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <f>VO2max!AA27</f>
         <v>0.30602006688963213</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <f>VO2max!W27</f>
         <v>1.1405977439999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <f>VO2max!AA28</f>
         <v>0.32107023411371238</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <f>VO2max!W28</f>
         <v>1.1320079999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <f>VO2max!AA29</f>
         <v>0.37290969899665555</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <f>VO2max!W29</f>
         <v>1.5154776000000003</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <f>VO2max!AA30</f>
         <v>0.43812709030100333</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <f>VO2max!W30</f>
         <v>1.7338670399999996</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <f>VO2max!AA31</f>
         <v>0.33946488294314386</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <f>VO2max!W31</f>
         <v>1.2484629119999999</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <f>VO2max!AA32</f>
         <v>0.40468227424749165</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <f>VO2max!W32</f>
         <v>1.570496256</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <f>VO2max!AA33</f>
         <v>0.43478260869565222</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <f>VO2max!W33</f>
         <v>1.5125996159999997</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <f>VO2max!AA34</f>
         <v>0.41973244147157196</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <f>VO2max!W34</f>
         <v>1.371620544</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <f>VO2max!AA35</f>
         <v>0.38127090301003347</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <f>VO2max!W35</f>
         <v>1.245655392</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <f>VO2max!AA36</f>
         <v>0.45652173913043481</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <f>VO2max!W36</f>
         <v>1.5422791679999996</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <f>VO2max!AA37</f>
         <v>0.52675585284280935</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <f>VO2max!W37</f>
         <v>1.8240171839999999</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <f>VO2max!AA38</f>
         <v>0.56354515050167231</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="11">
         <f>VO2max!W38</f>
         <v>1.8207006080000001</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <f>VO2max!AA39</f>
         <v>0.54013377926421402</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <f>VO2max!W39</f>
         <v>1.5875243999999997</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <f>VO2max!AA40</f>
         <v>0.61204013377926425</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <f>VO2max!W40</f>
         <v>1.9799253759999995</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <f>VO2max!AA41</f>
         <v>0.61036789297658867</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <f>VO2max!W41</f>
         <v>1.68841296</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <f>VO2max!AA42</f>
         <v>0.65384615384615385</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="11">
         <f>VO2max!W42</f>
         <v>1.6058176799999999</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <f>VO2max!AA43</f>
         <v>0.61036789297658867</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="11">
         <f>VO2max!W43</f>
         <v>1.33572432</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <f>VO2max!AA44</f>
         <v>0.64046822742474918</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="11">
         <f>VO2max!W44</f>
         <v>1.5092563200000002</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <f>VO2max!AA45</f>
         <v>0.6488294314381271</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="11">
         <f>VO2max!W45</f>
         <v>1.5526204799999996</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <f>VO2max!AA46</f>
         <v>0.73913043478260876</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="11">
         <f>VO2max!W46</f>
         <v>1.7678351999999997</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <f>VO2max!AA47</f>
         <v>0.76588628762541799</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="11">
         <f>VO2max!W47</f>
         <v>1.6228455039999998</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <f>VO2max!AA48</f>
         <v>0.75083612040133785</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="11">
         <f>VO2max!W48</f>
         <v>1.3305146399999999</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <f>VO2max!AA49</f>
         <v>0.89297658862876261</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="11">
         <f>VO2max!W49</f>
         <v>1.7058435839999995</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <f>VO2max!AA50</f>
         <v>0.86789297658862874</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="11">
         <f>VO2max!W50</f>
         <v>1.0482595199999998</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <f>VO2max!AA51</f>
         <v>0.85284280936454848</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="11">
         <f>VO2max!W51</f>
         <v>1.03018608</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <f>VO2max!AA52</f>
         <v>0.92474916387959871</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="11">
         <f>VO2max!W52</f>
         <v>1.01627136</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <f>VO2max!AA53</f>
         <v>0.91304347826086962</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="11">
         <f>VO2max!W53</f>
         <v>1.0045089599999999</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+      <c r="A50" s="2">
         <f>VO2max!AA54</f>
         <v>0.93812709030100339</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="11">
         <f>VO2max!W54</f>
         <v>0.96388947199999997</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+      <c r="A51" s="2">
         <f>VO2max!AA55</f>
         <v>0.96321070234113715</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="11">
         <f>VO2max!W55</f>
         <v>0.78153609599999996</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <f>VO2max!AA56</f>
         <v>1</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="11">
         <f>VO2max!W56</f>
         <v>0.37192895999999992</v>
       </c>
@@ -13043,682 +12714,682 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="8" t="str">
         <f>VO2max!AA5</f>
         <v>%VO2max</v>
       </c>
-      <c r="B1" s="10" t="str">
+      <c r="B1" s="9" t="str">
         <f>VO2max!Y5</f>
         <v>FatOx 
 [kCal/min]</v>
       </c>
-      <c r="C1" s="10" t="str">
+      <c r="C1" s="9" t="str">
         <f>VO2max!Z5</f>
         <v>CHO-Ox 
 [kCal/min]</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <f>VO2max!AA10</f>
         <v>8.1939799331103694E-2</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <f>VO2max!Y10</f>
         <v>3.0396150719999997</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <f>VO2max!Z10</f>
         <v>-0.44165347199999994</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <f>VO2max!AA11</f>
         <v>9.1973244147157199E-2</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <f>VO2max!Y11</f>
         <v>3.3227262719999997</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <f>VO2max!Z11</f>
         <v>-0.45830707199999998</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <f>VO2max!AA12</f>
         <v>0.14046822742474918</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <f>VO2max!Y12</f>
         <v>4.8290860800000006</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <f>VO2max!Z12</f>
         <v>-0.47855808000000011</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <f>VO2max!AA13</f>
         <v>0.16722408026755853</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <f>VO2max!Y13</f>
         <v>0.62944127999999988</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <f>VO2max!Z13</f>
         <v>4.6159027199999993</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <f>VO2max!AA14</f>
         <v>0.13043478260869565</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <f>VO2max!Y14</f>
         <v>3.602476512</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <f>VO2max!Z14</f>
         <v>0.53830108799999998</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <f>VO2max!AA15</f>
         <v>0.13377926421404682</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <f>VO2max!Y15</f>
         <v>3.3403576320000004</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <f>VO2max!Z15</f>
         <v>0.88794316800000006</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <f>VO2max!AA16</f>
         <v>0.1020066889632107</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <f>VO2max!Y16</f>
         <v>2.807582976</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <f>VO2max!Z16</f>
         <v>0.38285222400000002</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <f>VO2max!AA17</f>
         <v>0.12876254180602006</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <f>VO2max!Y17</f>
         <v>4.225191839999999</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <f>VO2max!Z17</f>
         <v>-0.12306383999999998</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <f>VO2max!AA18</f>
         <v>0.1387959866220736</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <f>VO2max!Y18</f>
         <v>4.5788652000000001</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <f>VO2max!Z18</f>
         <v>-0.21804120000000002</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <f>VO2max!AA19</f>
         <v>9.1973244147157199E-2</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <f>VO2max!Y19</f>
         <v>2.7890749440000002</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <f>VO2max!Z19</f>
         <v>0.116211456</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <f>VO2max!AA20</f>
         <v>0.21070234113712374</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <f>VO2max!Y20</f>
         <v>7.5359782080000004</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <f>VO2max!Z20</f>
         <v>-0.92547100799999993</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <f>VO2max!AA21</f>
         <v>0.25752508361204013</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <f>VO2max!Y21</f>
         <v>9.6494112000000012</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <f>VO2max!Z21</f>
         <v>-1.6746912</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <f>VO2max!AA22</f>
         <v>0.22073578595317725</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <f>VO2max!Y22</f>
         <v>8.4193106400000008</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <f>VO2max!Z22</f>
         <v>-1.5743426400000002</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <f>VO2max!AA23</f>
         <v>0.31103678929765888</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <f>VO2max!Y23</f>
         <v>12.908483711999999</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <f>VO2max!Z23</f>
         <v>-3.2752869120000003</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <f>VO2max!AA24</f>
         <v>0.22742474916387961</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <f>VO2max!Y24</f>
         <v>8.4027404160000021</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <f>VO2max!Z24</f>
         <v>-1.3416140160000001</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <f>VO2max!AA25</f>
         <v>0.27257525083612044</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <f>VO2max!Y25</f>
         <v>10.381091759999999</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <f>VO2max!Z25</f>
         <v>-1.94117976</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <f>VO2max!AA26</f>
         <v>0.25919732441471571</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <f>VO2max!Y26</f>
         <v>8.9895294719999992</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <f>VO2max!Z26</f>
         <v>-0.89085427199999989</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <f>VO2max!AA27</f>
         <v>0.30602006688963213</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <f>VO2max!Y27</f>
         <v>10.265379696</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <f>VO2max!Z27</f>
         <v>-0.67156689600000008</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <f>VO2max!AA28</f>
         <v>0.32107023411371238</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <f>VO2max!Y28</f>
         <v>10.188071999999998</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <f>VO2max!Z28</f>
         <v>-0.10087199999999998</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <f>VO2max!AA29</f>
         <v>0.37290969899665555</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <f>VO2max!Y29</f>
         <v>13.639298400000003</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <f>VO2max!Z29</f>
         <v>-1.9817784000000003</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <f>VO2max!AA30</f>
         <v>0.43812709030100333</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <f>VO2max!Y30</f>
         <v>15.604803359999996</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <f>VO2max!Z30</f>
         <v>-1.9163793599999996</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <f>VO2max!AA31</f>
         <v>0.33946488294314386</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <f>VO2max!Y31</f>
         <v>11.236166208</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <f>VO2max!Z31</f>
         <v>-0.63600940800000005</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <f>VO2max!AA32</f>
         <v>0.40468227424749165</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <f>VO2max!Y32</f>
         <v>14.134466304</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <f>VO2max!Z32</f>
         <v>-1.514407104</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <f>VO2max!AA33</f>
         <v>0.43478260869565222</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <f>VO2max!Y33</f>
         <v>13.613396543999997</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <f>VO2max!Z33</f>
         <v>0.13750905599999996</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <f>VO2max!AA34</f>
         <v>0.41973244147157196</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <f>VO2max!Y34</f>
         <v>12.344584896000001</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <f>VO2max!Z34</f>
         <v>0.92916230399999999</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <f>VO2max!AA35</f>
         <v>0.38127090301003347</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <f>VO2max!Y35</f>
         <v>11.210898528</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <f>VO2max!Z35</f>
         <v>0.84383107199999996</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <f>VO2max!AA36</f>
         <v>0.45652173913043481</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <f>VO2max!Y36</f>
         <v>13.880512511999997</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <f>VO2max!Z36</f>
         <v>0.57835468799999989</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <f>VO2max!AA37</f>
         <v>0.52675585284280935</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <f>VO2max!Y37</f>
         <v>16.416154656</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <f>VO2max!Z37</f>
         <v>0.16581974399999999</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
+      <c r="A30" s="7">
         <f>VO2max!AA38</f>
         <v>0.56354515050167231</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <f>VO2max!Y38</f>
         <v>16.386305472</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <f>VO2max!Z38</f>
         <v>1.4248961280000001</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
+      <c r="A31" s="7">
         <f>VO2max!AA39</f>
         <v>0.54013377926421402</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <f>VO2max!Y39</f>
         <v>14.287719599999997</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <f>VO2max!Z39</f>
         <v>2.9264003999999995</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
+      <c r="A32" s="7">
         <f>VO2max!AA40</f>
         <v>0.61204013377926425</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <f>VO2max!Y40</f>
         <v>17.819328383999995</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="10">
         <f>VO2max!Z40</f>
         <v>1.5495068159999996</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
+      <c r="A33" s="7">
         <f>VO2max!AA41</f>
         <v>0.61036789297658867</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <f>VO2max!Y41</f>
         <v>15.195716639999999</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="10">
         <f>VO2max!Z41</f>
         <v>4.2859713599999996</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
+      <c r="A34" s="7">
         <f>VO2max!AA42</f>
         <v>0.65384615384615385</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <f>VO2max!Y42</f>
         <v>14.452359119999999</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <f>VO2max!Z42</f>
         <v>6.4930888800000002</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
+      <c r="A35" s="7">
         <f>VO2max!AA43</f>
         <v>0.61036789297658867</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <f>VO2max!Y43</f>
         <v>12.02151888</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="10">
         <f>VO2max!Z43</f>
         <v>7.6858891200000006</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
+      <c r="A36" s="7">
         <f>VO2max!AA44</f>
         <v>0.64046822742474918</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <f>VO2max!Y44</f>
         <v>13.583306880000002</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="10">
         <f>VO2max!Z44</f>
         <v>6.9974611200000005</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="A37" s="7">
         <f>VO2max!AA45</f>
         <v>0.6488294314381271</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <f>VO2max!Y45</f>
         <v>13.973584319999997</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="10">
         <f>VO2max!Z45</f>
         <v>6.8825116799999986</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
+      <c r="A38" s="7">
         <f>VO2max!AA46</f>
         <v>0.73913043478260876</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <f>VO2max!Y46</f>
         <v>15.910516799999998</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="10">
         <f>VO2max!Z46</f>
         <v>7.8365231999999994</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="A39" s="7">
         <f>VO2max!AA47</f>
         <v>0.76588628762541799</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <f>VO2max!Y47</f>
         <v>14.605609535999999</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="10">
         <f>VO2max!Z47</f>
         <v>10.149660863999999</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
+      <c r="A40" s="7">
         <f>VO2max!AA48</f>
         <v>0.75083612040133785</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <f>VO2max!Y48</f>
         <v>11.974631759999999</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="10">
         <f>VO2max!Z48</f>
         <v>12.463392239999997</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+      <c r="A41" s="7">
         <f>VO2max!AA49</f>
         <v>0.89297658862876261</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <f>VO2max!Y49</f>
         <v>15.352592255999996</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="10">
         <f>VO2max!Z49</f>
         <v>13.614562943999998</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
+      <c r="A42" s="7">
         <f>VO2max!AA50</f>
         <v>0.86789297658862874</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <f>VO2max!Y50</f>
         <v>9.4343356799999984</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="10">
         <f>VO2max!Z50</f>
         <v>19.154560319999995</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+      <c r="A43" s="7">
         <f>VO2max!AA51</f>
         <v>0.85284280936454848</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <f>VO2max!Y51</f>
         <v>9.27167472</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="10">
         <f>VO2max!Z51</f>
         <v>18.824309279999998</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
+      <c r="A44" s="7">
         <f>VO2max!AA52</f>
         <v>0.92474916387959871</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <f>VO2max!Y52</f>
         <v>9.1464422399999989</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="10">
         <f>VO2max!Z52</f>
         <v>21.341698559999994</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
+      <c r="A45" s="7">
         <f>VO2max!AA53</f>
         <v>0.91304347826086962</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <f>VO2max!Y53</f>
         <v>9.0405806399999999</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="10">
         <f>VO2max!Z53</f>
         <v>21.09468816</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
+      <c r="A46" s="7">
         <f>VO2max!AA54</f>
         <v>0.93812709030100339</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <f>VO2max!Y54</f>
         <v>8.6750052479999997</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="10">
         <f>VO2max!Z54</f>
         <v>22.307156351999996</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="A47" s="7">
         <f>VO2max!AA55</f>
         <v>0.96321070234113715</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="10">
         <f>VO2max!Y55</f>
         <v>7.0338248639999996</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="10">
         <f>VO2max!Z55</f>
         <v>24.938106335999997</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
+      <c r="A48" s="7">
         <f>VO2max!AA56</f>
         <v>1</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="10">
         <f>VO2max!Y56</f>
         <v>3.3473606399999993</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="10">
         <f>VO2max!Z56</f>
         <v>30.126245759999993</v>
       </c>
@@ -13736,10 +13407,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13748,636 +13419,994 @@
     <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>VO2max!M5</f>
         <v>HR bpm</v>
       </c>
-      <c r="B1" s="7" t="str">
+      <c r="B1" s="6" t="str">
         <f>VO2max!Y5</f>
         <v>FatOx 
 [kCal/min]</v>
       </c>
-      <c r="C1" s="7" t="str">
+      <c r="C1" s="6" t="str">
         <f>VO2max!Z5</f>
         <v>CHO-Ox 
 [kCal/min]</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="D1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <f>VO2max!M16</f>
         <v>74</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <f>VO2max!Y16</f>
         <v>2.807582976</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <f>VO2max!Z16</f>
         <v>0.38285222400000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="D2" s="11">
+        <f>C2+B2</f>
+        <v>3.1904352</v>
+      </c>
+      <c r="E2" s="13">
+        <f>B2/D2</f>
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <f>VO2max!M17</f>
         <v>76</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <f>VO2max!Y17</f>
         <v>4.225191839999999</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <f>VO2max!Z17</f>
         <v>-0.12306383999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="D3" s="11">
+        <f t="shared" ref="D3:D45" si="0">C3+B3</f>
+        <v>4.1021279999999987</v>
+      </c>
+      <c r="E3" s="13">
+        <f t="shared" ref="E3:E45" si="1">B3/D3</f>
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <f>VO2max!M18</f>
         <v>85</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <f>VO2max!Y18</f>
         <v>4.5788652000000001</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <f>VO2max!Z18</f>
         <v>-0.21804120000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="D4" s="11">
+        <f t="shared" si="0"/>
+        <v>4.360824</v>
+      </c>
+      <c r="E4" s="13">
+        <f t="shared" si="1"/>
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <f>VO2max!M19</f>
         <v>92</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <f>VO2max!Y19</f>
         <v>2.7890749440000002</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <f>VO2max!Z19</f>
         <v>0.116211456</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="D5" s="11">
+        <f t="shared" si="0"/>
+        <v>2.9052864</v>
+      </c>
+      <c r="E5" s="13">
+        <f t="shared" si="1"/>
+        <v>0.96000000000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <f>VO2max!M20</f>
         <v>88</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <f>VO2max!Y20</f>
         <v>7.5359782080000004</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <f>VO2max!Z20</f>
         <v>-0.92547100799999993</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="D6" s="11">
+        <f t="shared" si="0"/>
+        <v>6.6105072000000007</v>
+      </c>
+      <c r="E6" s="13">
+        <f t="shared" si="1"/>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <f>VO2max!M21</f>
         <v>88</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="11">
         <f>VO2max!Y21</f>
         <v>9.6494112000000012</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <f>VO2max!Z21</f>
         <v>-1.6746912</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="D7" s="11">
+        <f t="shared" si="0"/>
+        <v>7.9747200000000014</v>
+      </c>
+      <c r="E7" s="13">
+        <f t="shared" si="1"/>
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <f>VO2max!M22</f>
         <v>80</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="11">
         <f>VO2max!Y22</f>
         <v>8.4193106400000008</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="11">
         <f>VO2max!Z22</f>
         <v>-1.5743426400000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="D8" s="11">
+        <f t="shared" si="0"/>
+        <v>6.8449680000000006</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="1"/>
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <f>VO2max!M23</f>
         <v>86</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <f>VO2max!Y23</f>
         <v>12.908483711999999</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="11">
         <f>VO2max!Z23</f>
         <v>-3.2752869120000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>9.6331967999999986</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="1"/>
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <f>VO2max!M24</f>
         <v>93</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <f>VO2max!Y24</f>
         <v>8.4027404160000021</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <f>VO2max!Z24</f>
         <v>-1.3416140160000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="D10" s="11">
+        <f t="shared" si="0"/>
+        <v>7.0611264000000018</v>
+      </c>
+      <c r="E10" s="13">
+        <f t="shared" si="1"/>
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <f>VO2max!M25</f>
         <v>94</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <f>VO2max!Y25</f>
         <v>10.381091759999999</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <f>VO2max!Z25</f>
         <v>-1.94117976</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="D11" s="11">
+        <f t="shared" si="0"/>
+        <v>8.4399119999999979</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="1"/>
+        <v>1.2300000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <f>VO2max!M26</f>
         <v>94</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <f>VO2max!Y26</f>
         <v>8.9895294719999992</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <f>VO2max!Z26</f>
         <v>-0.89085427199999989</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="D12" s="11">
+        <f t="shared" si="0"/>
+        <v>8.0986751999999989</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="1"/>
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <f>VO2max!M27</f>
         <v>99</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <f>VO2max!Y27</f>
         <v>10.265379696</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <f>VO2max!Z27</f>
         <v>-0.67156689600000008</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="D13" s="11">
+        <f t="shared" si="0"/>
+        <v>9.5938128000000003</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="1"/>
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <f>VO2max!M28</f>
         <v>106</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <f>VO2max!Y28</f>
         <v>10.188071999999998</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <f>VO2max!Z28</f>
         <v>-0.10087199999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="D14" s="11">
+        <f t="shared" si="0"/>
+        <v>10.087199999999998</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="1"/>
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <f>VO2max!M29</f>
         <v>109</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <f>VO2max!Y29</f>
         <v>13.639298400000003</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <f>VO2max!Z29</f>
         <v>-1.9817784000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="D15" s="11">
+        <f t="shared" si="0"/>
+        <v>11.657520000000003</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="1"/>
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <f>VO2max!M30</f>
         <v>110</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <f>VO2max!Y30</f>
         <v>15.604803359999996</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <f>VO2max!Z30</f>
         <v>-1.9163793599999996</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="D16" s="11">
+        <f t="shared" si="0"/>
+        <v>13.688423999999998</v>
+      </c>
+      <c r="E16" s="13">
+        <f t="shared" si="1"/>
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <f>VO2max!M31</f>
         <v>109</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <f>VO2max!Y31</f>
         <v>11.236166208</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <f>VO2max!Z31</f>
         <v>-0.63600940800000005</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="D17" s="11">
+        <f t="shared" si="0"/>
+        <v>10.600156800000001</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" si="1"/>
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <f>VO2max!M32</f>
         <v>106</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <f>VO2max!Y32</f>
         <v>14.134466304</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <f>VO2max!Z32</f>
         <v>-1.514407104</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="D18" s="11">
+        <f t="shared" si="0"/>
+        <v>12.6200592</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" si="1"/>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <f>VO2max!M33</f>
         <v>110</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <f>VO2max!Y33</f>
         <v>13.613396543999997</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="11">
         <f>VO2max!Z33</f>
         <v>0.13750905599999996</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="D19" s="11">
+        <f t="shared" si="0"/>
+        <v>13.750905599999998</v>
+      </c>
+      <c r="E19" s="13">
+        <f t="shared" si="1"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <f>VO2max!M34</f>
         <v>112</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <f>VO2max!Y34</f>
         <v>12.344584896000001</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <f>VO2max!Z34</f>
         <v>0.92916230399999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="D20" s="11">
+        <f t="shared" si="0"/>
+        <v>13.273747200000001</v>
+      </c>
+      <c r="E20" s="13">
+        <f t="shared" si="1"/>
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <f>VO2max!M35</f>
         <v>109</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <f>VO2max!Y35</f>
         <v>11.210898528</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="11">
         <f>VO2max!Z35</f>
         <v>0.84383107199999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="D21" s="11">
+        <f t="shared" si="0"/>
+        <v>12.0547296</v>
+      </c>
+      <c r="E21" s="13">
+        <f t="shared" si="1"/>
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <f>VO2max!M36</f>
         <v>110</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <f>VO2max!Y36</f>
         <v>13.880512511999997</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="11">
         <f>VO2max!Z36</f>
         <v>0.57835468799999989</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="D22" s="11">
+        <f t="shared" si="0"/>
+        <v>14.458867199999997</v>
+      </c>
+      <c r="E22" s="13">
+        <f t="shared" si="1"/>
+        <v>0.96000000000000008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <f>VO2max!M37</f>
         <v>119</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <f>VO2max!Y37</f>
         <v>16.416154656</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="11">
         <f>VO2max!Z37</f>
         <v>0.16581974399999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="D23" s="11">
+        <f t="shared" si="0"/>
+        <v>16.5819744</v>
+      </c>
+      <c r="E23" s="13">
+        <f t="shared" si="1"/>
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <f>VO2max!M38</f>
         <v>129</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <f>VO2max!Y38</f>
         <v>16.386305472</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="11">
         <f>VO2max!Z38</f>
         <v>1.4248961280000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="D24" s="11">
+        <f t="shared" si="0"/>
+        <v>17.8112016</v>
+      </c>
+      <c r="E24" s="13">
+        <f t="shared" si="1"/>
+        <v>0.91999999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <f>VO2max!M39</f>
         <v>135</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <f>VO2max!Y39</f>
         <v>14.287719599999997</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="11">
         <f>VO2max!Z39</f>
         <v>2.9264003999999995</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="D25" s="11">
+        <f t="shared" si="0"/>
+        <v>17.214119999999998</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="1"/>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <f>VO2max!M40</f>
         <v>131</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <f>VO2max!Y40</f>
         <v>17.819328383999995</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="11">
         <f>VO2max!Z40</f>
         <v>1.5495068159999996</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="D26" s="11">
+        <f t="shared" si="0"/>
+        <v>19.368835199999996</v>
+      </c>
+      <c r="E26" s="13">
+        <f t="shared" si="1"/>
+        <v>0.91999999999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <f>VO2max!M41</f>
         <v>132</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <f>VO2max!Y41</f>
         <v>15.195716639999999</v>
       </c>
-      <c r="C27" s="12">
+      <c r="C27" s="11">
         <f>VO2max!Z41</f>
         <v>4.2859713599999996</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="D27" s="11">
+        <f t="shared" si="0"/>
+        <v>19.481687999999998</v>
+      </c>
+      <c r="E27" s="13">
+        <f t="shared" si="1"/>
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <f>VO2max!M42</f>
         <v>138</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <f>VO2max!Y42</f>
         <v>14.452359119999999</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="11">
         <f>VO2max!Z42</f>
         <v>6.4930888800000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="D28" s="11">
+        <f t="shared" si="0"/>
+        <v>20.945447999999999</v>
+      </c>
+      <c r="E28" s="13">
+        <f t="shared" si="1"/>
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <f>VO2max!M43</f>
         <v>138</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <f>VO2max!Y43</f>
         <v>12.02151888</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="11">
         <f>VO2max!Z43</f>
         <v>7.6858891200000006</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="D29" s="11">
+        <f t="shared" si="0"/>
+        <v>19.707408000000001</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="1"/>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <f>VO2max!M44</f>
         <v>135</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <f>VO2max!Y44</f>
         <v>13.583306880000002</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <f>VO2max!Z44</f>
         <v>6.9974611200000005</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="D30" s="11">
+        <f t="shared" si="0"/>
+        <v>20.580768000000003</v>
+      </c>
+      <c r="E30" s="13">
+        <f t="shared" si="1"/>
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <f>VO2max!M45</f>
         <v>137</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <f>VO2max!Y45</f>
         <v>13.973584319999997</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="11">
         <f>VO2max!Z45</f>
         <v>6.8825116799999986</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="D31" s="11">
+        <f t="shared" si="0"/>
+        <v>20.856095999999994</v>
+      </c>
+      <c r="E31" s="13">
+        <f t="shared" si="1"/>
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <f>VO2max!M46</f>
         <v>147</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <f>VO2max!Y46</f>
         <v>15.910516799999998</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="11">
         <f>VO2max!Z46</f>
         <v>7.8365231999999994</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="D32" s="11">
+        <f t="shared" si="0"/>
+        <v>23.747039999999998</v>
+      </c>
+      <c r="E32" s="13">
+        <f t="shared" si="1"/>
+        <v>0.66999999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <f>VO2max!M47</f>
         <v>150</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="11">
         <f>VO2max!Y47</f>
         <v>14.605609535999999</v>
       </c>
-      <c r="C33" s="12">
+      <c r="C33" s="11">
         <f>VO2max!Z47</f>
         <v>10.149660863999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="D33" s="11">
+        <f t="shared" si="0"/>
+        <v>24.755270400000001</v>
+      </c>
+      <c r="E33" s="13">
+        <f t="shared" si="1"/>
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <f>VO2max!M48</f>
         <v>155</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="11">
         <f>VO2max!Y48</f>
         <v>11.974631759999999</v>
       </c>
-      <c r="C34" s="12">
+      <c r="C34" s="11">
         <f>VO2max!Z48</f>
         <v>12.463392239999997</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+      <c r="D34" s="11">
+        <f t="shared" si="0"/>
+        <v>24.438023999999999</v>
+      </c>
+      <c r="E34" s="13">
+        <f t="shared" si="1"/>
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <f>VO2max!M49</f>
         <v>158</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="11">
         <f>VO2max!Y49</f>
         <v>15.352592255999996</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="11">
         <f>VO2max!Z49</f>
         <v>13.614562943999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+      <c r="D35" s="11">
+        <f t="shared" si="0"/>
+        <v>28.967155199999993</v>
+      </c>
+      <c r="E35" s="13">
+        <f t="shared" si="1"/>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <f>VO2max!M50</f>
         <v>161</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="11">
         <f>VO2max!Y50</f>
         <v>9.4343356799999984</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="11">
         <f>VO2max!Z50</f>
         <v>19.154560319999995</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+      <c r="D36" s="11">
+        <f t="shared" si="0"/>
+        <v>28.588895999999991</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="1"/>
+        <v>0.33000000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <f>VO2max!M51</f>
         <v>161</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="11">
         <f>VO2max!Y51</f>
         <v>9.27167472</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="11">
         <f>VO2max!Z51</f>
         <v>18.824309279999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+      <c r="D37" s="11">
+        <f t="shared" si="0"/>
+        <v>28.095983999999998</v>
+      </c>
+      <c r="E37" s="13">
+        <f t="shared" si="1"/>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <f>VO2max!M52</f>
         <v>163</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="11">
         <f>VO2max!Y52</f>
         <v>9.1464422399999989</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C38" s="11">
         <f>VO2max!Z52</f>
         <v>21.341698559999994</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+      <c r="D38" s="11">
+        <f t="shared" si="0"/>
+        <v>30.488140799999993</v>
+      </c>
+      <c r="E38" s="13">
+        <f t="shared" si="1"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <f>VO2max!M53</f>
         <v>165</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="11">
         <f>VO2max!Y53</f>
         <v>9.0405806399999999</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="11">
         <f>VO2max!Z53</f>
         <v>21.09468816</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+      <c r="D39" s="11">
+        <f t="shared" si="0"/>
+        <v>30.135268799999999</v>
+      </c>
+      <c r="E39" s="13">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <f>VO2max!M54</f>
         <v>167</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="11">
         <f>VO2max!Y54</f>
         <v>8.6750052479999997</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="11">
         <f>VO2max!Z54</f>
         <v>22.307156351999996</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+      <c r="D40" s="11">
+        <f t="shared" si="0"/>
+        <v>30.982161599999998</v>
+      </c>
+      <c r="E40" s="13">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <f>VO2max!M55</f>
         <v>172</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="11">
         <f>VO2max!Y55</f>
         <v>7.0338248639999996</v>
       </c>
-      <c r="C41" s="12">
+      <c r="C41" s="11">
         <f>VO2max!Z55</f>
         <v>24.938106335999997</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+      <c r="D41" s="11">
+        <f t="shared" si="0"/>
+        <v>31.971931199999997</v>
+      </c>
+      <c r="E41" s="13">
+        <f t="shared" si="1"/>
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <f>VO2max!M56</f>
         <v>173</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="11">
         <f>VO2max!Y56</f>
         <v>3.3473606399999993</v>
       </c>
-      <c r="C42" s="12">
+      <c r="C42" s="11">
         <f>VO2max!Z56</f>
         <v>30.126245759999993</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+      <c r="D42" s="11">
+        <f t="shared" si="0"/>
+        <v>33.473606399999994</v>
+      </c>
+      <c r="E42" s="13">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <f>VO2max!M57</f>
         <v>176</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="11">
         <f>VO2max!Y57</f>
         <v>1.5913670400000002</v>
       </c>
-      <c r="C43" s="12">
+      <c r="C43" s="11">
         <f>VO2max!Z57</f>
         <v>30.23597376</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+      <c r="D43" s="11">
+        <f t="shared" si="0"/>
+        <v>31.827340800000002</v>
+      </c>
+      <c r="E43" s="13">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <f>VO2max!M58</f>
         <v>176</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="11">
         <f>VO2max!Y58</f>
         <v>0.30455999999999994</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="11">
         <f>VO2max!Z58</f>
         <v>30.151439999999997</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+      <c r="D44" s="11">
+        <f t="shared" si="0"/>
+        <v>30.455999999999996</v>
+      </c>
+      <c r="E44" s="13">
+        <f t="shared" si="1"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <f>VO2max!M59</f>
         <v>180</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="11">
         <f>VO2max!Y59</f>
         <v>-1.5273308159999999</v>
       </c>
-      <c r="C45" s="12">
+      <c r="C45" s="11">
         <f>VO2max!Z59</f>
         <v>26.982844415999999</v>
+      </c>
+      <c r="D45" s="11">
+        <f t="shared" si="0"/>
+        <v>25.4555136</v>
+      </c>
+      <c r="E45" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.06</v>
       </c>
     </row>
   </sheetData>
